--- a/external/correzioni/ER_edit.xlsx
+++ b/external/correzioni/ER_edit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidenicoli/Local_Workspace/TesiMag/external/correzioni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA98E53A-07A9-7E4B-A929-E35F55046590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65F6EB5-665A-7543-8776-A87D72DB750A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{C57C2895-F65D-1D4A-9CBD-F2C678EFA471}"/>
+    <workbookView xWindow="480" yWindow="520" windowWidth="25040" windowHeight="13300" xr2:uid="{4E85C35B-73E0-C844-AF4D-43C530464329}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -2753,6 +2753,57 @@
     <t>Voltana</t>
   </si>
   <si>
+    <t>attenzione è in Toscana</t>
+  </si>
+  <si>
+    <t>pochi dati</t>
+  </si>
+  <si>
+    <t>meglio quota da DEM - ma attenzione: è in Liguria</t>
+  </si>
+  <si>
+    <t>Non terrei quote negative: mettiamo a 0</t>
+  </si>
+  <si>
+    <t>attenzione: è in Toscana</t>
+  </si>
+  <si>
+    <t>pochi dati - Non terrei quote negative: mettiamo a 0</t>
+  </si>
+  <si>
+    <t>attenzione: è in Liguria</t>
+  </si>
+  <si>
+    <t>bene quota da DEM - ma attenzione: è in Toscana</t>
+  </si>
+  <si>
+    <t>attenzione: è in Piemonte</t>
+  </si>
+  <si>
+    <t>attenzione: è in Lombardia</t>
+  </si>
+  <si>
+    <t>pochi dati - ma visto che è una delle quote più alte della regione si potrebbe tenere lo stesso</t>
+  </si>
+  <si>
+    <t>pochi dati - attenzione è in Liguria</t>
+  </si>
+  <si>
+    <t>posizione non perfetta, ma teniamo così</t>
+  </si>
+  <si>
+    <t>pochi dati - attenzione: è in Lombardia</t>
+  </si>
+  <si>
+    <t>posizione non bellissima, ma teniamo così - ma attenzione è in Liguria</t>
+  </si>
+  <si>
+    <t>attenzione: è a San Marino</t>
+  </si>
+  <si>
+    <t>Montecreto - Centrale idroelettrica di Strettara ha le coordinate indicate qui - Valutare se spostare</t>
+  </si>
+  <si>
     <t>lon_ok</t>
   </si>
   <si>
@@ -2772,57 +2823,6 @@
   </si>
   <si>
     <t>note</t>
-  </si>
-  <si>
-    <t>attenzione è in Toscana</t>
-  </si>
-  <si>
-    <t>pochi dati</t>
-  </si>
-  <si>
-    <t>meglio quota da DEM - ma attenzione: è in Liguria</t>
-  </si>
-  <si>
-    <t>Non terrei quote negative: mettiamo a 0</t>
-  </si>
-  <si>
-    <t>attenzione: è in Toscana</t>
-  </si>
-  <si>
-    <t>pochi dati - Non terrei quote negative: mettiamo a 0</t>
-  </si>
-  <si>
-    <t>attenzione: è in Liguria</t>
-  </si>
-  <si>
-    <t>bene quota da DEM - ma attenzione: è in Toscana</t>
-  </si>
-  <si>
-    <t>attenzione: è in Piemonte</t>
-  </si>
-  <si>
-    <t>attenzione: è in Lombardia</t>
-  </si>
-  <si>
-    <t>pochi dati - ma visto che è una delle quote più alte della regione si potrebbe tenere lo stesso</t>
-  </si>
-  <si>
-    <t>pochi dati - attenzione è in Liguria</t>
-  </si>
-  <si>
-    <t>posizione non perfetta, ma teniamo così</t>
-  </si>
-  <si>
-    <t>pochi dati - attenzione: è in Lombardia</t>
-  </si>
-  <si>
-    <t>posizione non bellissima, ma teniamo così - ma attenzione è in Liguria</t>
-  </si>
-  <si>
-    <t>attenzione: è a San Marino</t>
-  </si>
-  <si>
-    <t>Montecreto - Centrale idroelettrica di Strettara ha le coordinate indicate qui - Valutare se spostare</t>
   </si>
 </sst>
 </file>
@@ -2838,14 +2838,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
@@ -2862,6 +2862,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2870,12 +2876,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
     <fill>
@@ -2896,9 +2896,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
@@ -2907,9 +2905,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2920,14 +2920,8 @@
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2936,12 +2930,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2961,7 +2961,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -2990,37 +2990,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AFBEF859-76E0-9E4C-A319-1D0E68FA8380}" name="Tabella1" displayName="Tabella1" ref="A1:AB395" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:AB395" xr:uid="{AFBEF859-76E0-9E4C-A319-1D0E68FA8380}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CE1DF9A9-5906-9B41-ADF4-33F1D6BCDD3F}" name="Tabella1" displayName="Tabella1" ref="A1:AB395" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:AB395" xr:uid="{CE1DF9A9-5906-9B41-ADF4-33F1D6BCDD3F}"/>
   <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{AC3AD3BE-FA21-8747-8ECA-D148C3732C8B}" name="dataset"/>
-    <tableColumn id="2" xr3:uid="{D6EE3F3B-99D9-C044-ACD7-AC999171C3C3}" name="sensor_key"/>
-    <tableColumn id="3" xr3:uid="{52B8DA0B-86CC-C744-8B79-CFE13E85B7E9}" name="name"/>
-    <tableColumn id="4" xr3:uid="{1B76E1F8-322C-4749-B8FD-A4C2925149FC}" name="user_code"/>
-    <tableColumn id="5" xr3:uid="{A4F43C8E-EB4D-AB43-B2CE-2F43C3DAE1B0}" name="network"/>
-    <tableColumn id="6" xr3:uid="{4A210641-7911-0E45-AB6D-27579078206D}" name="state"/>
-    <tableColumn id="7" xr3:uid="{5AAFD754-9C6F-FE4D-8086-2A0BEEE2480E}" name="province_code"/>
-    <tableColumn id="8" xr3:uid="{BBD9DC64-8C5E-2241-9A80-7AAA3D7E65B3}" name="town"/>
-    <tableColumn id="9" xr3:uid="{E7E9E07B-7D30-CE4E-AC9E-128A1656C109}" name="lon"/>
-    <tableColumn id="10" xr3:uid="{70381F89-4006-A143-9DB1-9322E5BDEB02}" name="lat"/>
-    <tableColumn id="11" xr3:uid="{BAB371AD-E476-A84A-9D8E-EB722D9A2FE3}" name="elevation"/>
-    <tableColumn id="12" xr3:uid="{8201F7EE-9A23-CD4F-8445-629BECE2C9AB}" name="elevation_glo30"/>
-    <tableColumn id="13" xr3:uid="{31E6E1EF-681C-A04F-8E3C-BACA2982C7B4}" name="kind"/>
-    <tableColumn id="14" xr3:uid="{BC9A4B9D-CB48-6F42-A1CA-748C1992AF6E}" name="series_first" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{BE1CA6EC-BA9B-BE4B-B52A-8CB3A56AAFB3}" name="series_last" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{7B15E9B7-BECC-BF43-85F7-D2AF8095ADDE}" name="from_datasets"/>
-    <tableColumn id="17" xr3:uid="{B1E0D6EF-D725-CB4C-89E9-0F71CB60FC1E}" name="from_sensor_keys"/>
-    <tableColumn id="18" xr3:uid="{C0FE97F5-81E7-E64B-BAA4-B87EA3B7C33C}" name="data_ranks"/>
-    <tableColumn id="19" xr3:uid="{BE8F8A9B-ECFE-9D4F-B94B-5042DDD5AF1A}" name="valid_days"/>
-    <tableColumn id="20" xr3:uid="{D60191A3-807A-5143-AF6E-BB1BD5AAE842}" name="valid90"/>
-    <tableColumn id="21" xr3:uid="{20807294-B4F3-CF4C-9A55-FC9C065907F0}" name="original_dataset"/>
-    <tableColumn id="23" xr3:uid="{8BB9F7E1-BE4E-9547-87BD-A37F4CBA417D}" name="lon_ok"/>
-    <tableColumn id="24" xr3:uid="{E024C81F-75A1-AC4D-8F06-C854D16006C4}" name="lat_ok"/>
-    <tableColumn id="25" xr3:uid="{D234F346-9547-D04E-BE1C-5152E2AA38C0}" name="ele_ok"/>
-    <tableColumn id="26" xr3:uid="{7653D24F-F4FB-064E-ABE3-85610896974C}" name="loc_precision"/>
-    <tableColumn id="27" xr3:uid="{3F0BC1EB-4A73-D04E-A1FD-3EEEBB97D258}" name="elev_precision"/>
-    <tableColumn id="28" xr3:uid="{5AC056C3-19A1-AC4E-9D6F-3C82E514378B}" name="keep"/>
-    <tableColumn id="29" xr3:uid="{08431D04-B469-454C-A636-EAD047866BEB}" name="note" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{51515D18-DAB4-CC4E-8270-B5FC9F71501C}" name="dataset"/>
+    <tableColumn id="2" xr3:uid="{C2812D60-9FBB-BC4B-BBEB-A5D63477CCD1}" name="sensor_key"/>
+    <tableColumn id="3" xr3:uid="{67E3A2B0-C28A-654E-B526-F9FBA902841E}" name="name"/>
+    <tableColumn id="4" xr3:uid="{9CAC1B57-7A4D-4549-8BC8-1E3E35C0ED60}" name="user_code"/>
+    <tableColumn id="5" xr3:uid="{88891B63-1B26-2747-90CC-233BC13FF9A8}" name="network"/>
+    <tableColumn id="6" xr3:uid="{34FD1460-9899-324C-84F5-B0107B84EEB3}" name="state"/>
+    <tableColumn id="7" xr3:uid="{F9B1B041-72D7-824D-8979-043968852DCF}" name="province_code"/>
+    <tableColumn id="8" xr3:uid="{DF687700-BFBF-2048-92C4-E3A10B91F17B}" name="town"/>
+    <tableColumn id="9" xr3:uid="{2E7A744F-E965-A443-90E6-3078D1AD9F77}" name="lon"/>
+    <tableColumn id="10" xr3:uid="{7B6E719E-B1BD-0148-9C43-9CD5F8FA29A2}" name="lat"/>
+    <tableColumn id="11" xr3:uid="{6FF4EA40-3185-1747-933C-13301415BFF7}" name="elevation"/>
+    <tableColumn id="12" xr3:uid="{34905D59-E945-9640-A8C5-C90B80ACEF38}" name="elevation_glo30"/>
+    <tableColumn id="13" xr3:uid="{F5B7F793-56B3-134D-AF6A-EAA3E2A53331}" name="kind"/>
+    <tableColumn id="14" xr3:uid="{69230C56-ADB5-B547-9192-C3469BC35977}" name="series_first" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{8A342B70-1C72-EE46-AD44-B0BA73CE6F6C}" name="series_last" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{DD7F625A-6ADC-A647-945A-4746509EBA61}" name="from_datasets"/>
+    <tableColumn id="17" xr3:uid="{A20C02B5-32F9-8D4D-AF23-217047E0072E}" name="from_sensor_keys"/>
+    <tableColumn id="18" xr3:uid="{69B00DB4-C389-F942-88B4-085905B01E00}" name="data_ranks"/>
+    <tableColumn id="19" xr3:uid="{365C5CE0-EF51-724D-85D9-5824B80DDB50}" name="valid_days"/>
+    <tableColumn id="20" xr3:uid="{5D337215-24FE-704C-B83C-A81EE6F38AB4}" name="valid90"/>
+    <tableColumn id="21" xr3:uid="{77282BB4-079A-DA45-B7BA-770FC3BEE783}" name="original_dataset"/>
+    <tableColumn id="23" xr3:uid="{6E0C8A11-55DF-134C-B140-7E863EC2A797}" name="lon_ok"/>
+    <tableColumn id="24" xr3:uid="{6EEAA3F7-F0C3-C94D-8AF8-27C534900509}" name="lat_ok"/>
+    <tableColumn id="25" xr3:uid="{11CC8B9E-8987-E14D-9CA0-8A5A44C0B668}" name="ele_ok"/>
+    <tableColumn id="26" xr3:uid="{484729DF-62AA-D74D-9B25-7752F5FADEE2}" name="loc_precision"/>
+    <tableColumn id="27" xr3:uid="{BD1740D6-6518-FD48-9221-118563F5768C}" name="elev_precision"/>
+    <tableColumn id="28" xr3:uid="{2AFC3452-E80E-A146-8F92-0ACF41B02464}" name="keep"/>
+    <tableColumn id="29" xr3:uid="{458EA8B5-0599-2C40-B424-D4D176355896}" name="note" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3342,13 +3342,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8FC7E0-B730-9742-A1B3-24BCB2B3CB9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2584B3-9F6E-4242-B780-BC8D3B1DBA2E}">
   <dimension ref="A1:AB395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="S1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C376" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="topRight" activeCell="X8" sqref="X8"/>
+      <selection pane="topRight" activeCell="X384" sqref="X384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3442,26 +3442,26 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
-        <v>905</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>906</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>909</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>910</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>911</v>
+      <c r="V1" s="12" t="s">
+        <v>922</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>923</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>924</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>925</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>926</v>
+      </c>
+      <c r="AA1" s="12" t="s">
+        <v>927</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
@@ -3535,7 +3535,7 @@
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
       <c r="AB2" s="5" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
@@ -3611,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="AB3" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
@@ -3678,13 +3678,13 @@
       <c r="U4" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="9"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="8"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -3759,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
@@ -3826,13 +3826,13 @@
       <c r="U6" t="s">
         <v>32</v>
       </c>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="9"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="8"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -3898,7 +3898,7 @@
       <c r="U7" t="s">
         <v>32</v>
       </c>
-      <c r="AB7" s="10"/>
+      <c r="AB7" s="9"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -3973,7 +3973,7 @@
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="5" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
@@ -4049,7 +4049,7 @@
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
       <c r="AB9" s="5" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
@@ -4116,13 +4116,13 @@
       <c r="U10" t="s">
         <v>32</v>
       </c>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="9"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="8"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -4195,7 +4195,7 @@
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
       <c r="AB11" s="5" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
@@ -4273,7 +4273,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="7" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
@@ -4340,7 +4340,7 @@
       <c r="U13" t="s">
         <v>32</v>
       </c>
-      <c r="AB13" s="10"/>
+      <c r="AB13" s="9"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -4406,13 +4406,13 @@
       <c r="U14" t="s">
         <v>32</v>
       </c>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="9"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="8"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -4478,7 +4478,7 @@
       <c r="U15" t="s">
         <v>32</v>
       </c>
-      <c r="AB15" s="10"/>
+      <c r="AB15" s="9"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -4555,7 +4555,7 @@
         <v>0</v>
       </c>
       <c r="AB16" s="7" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
@@ -4629,7 +4629,7 @@
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
       <c r="AB17" s="5" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
@@ -4703,7 +4703,7 @@
       <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
       <c r="AB18" s="5" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
@@ -4770,7 +4770,7 @@
       <c r="U19" t="s">
         <v>32</v>
       </c>
-      <c r="AB19" s="10"/>
+      <c r="AB19" s="9"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -4836,13 +4836,13 @@
       <c r="U20" t="s">
         <v>32</v>
       </c>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
-      <c r="AA20" s="8"/>
-      <c r="AB20" s="9"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="8"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -4908,7 +4908,7 @@
       <c r="U21" t="s">
         <v>32</v>
       </c>
-      <c r="AB21" s="10"/>
+      <c r="AB21" s="9"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -4974,13 +4974,13 @@
       <c r="U22" t="s">
         <v>32</v>
       </c>
-      <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="8"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="9"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="8"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -5046,7 +5046,7 @@
       <c r="U23" t="s">
         <v>32</v>
       </c>
-      <c r="AB23" s="10"/>
+      <c r="AB23" s="9"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -5121,7 +5121,7 @@
         <v>0</v>
       </c>
       <c r="AB24" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
@@ -5188,7 +5188,7 @@
       <c r="U25" t="s">
         <v>32</v>
       </c>
-      <c r="AB25" s="10"/>
+      <c r="AB25" s="9"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -5263,7 +5263,7 @@
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
       <c r="AB26" s="5" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
@@ -5330,7 +5330,7 @@
       <c r="U27" t="s">
         <v>32</v>
       </c>
-      <c r="AB27" s="10"/>
+      <c r="AB27" s="9"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -5396,13 +5396,13 @@
       <c r="U28" t="s">
         <v>32</v>
       </c>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="8"/>
-      <c r="Z28" s="8"/>
-      <c r="AA28" s="8"/>
-      <c r="AB28" s="9"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="8"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -5468,7 +5468,7 @@
       <c r="U29" t="s">
         <v>32</v>
       </c>
-      <c r="AB29" s="10"/>
+      <c r="AB29" s="9"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -5534,13 +5534,13 @@
       <c r="U30" t="s">
         <v>32</v>
       </c>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="8"/>
-      <c r="AB30" s="9"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="8"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -5606,7 +5606,7 @@
       <c r="U31" t="s">
         <v>32</v>
       </c>
-      <c r="AB31" s="10"/>
+      <c r="AB31" s="9"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -5672,13 +5672,13 @@
       <c r="U32" t="s">
         <v>32</v>
       </c>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="8"/>
-      <c r="AA32" s="8"/>
-      <c r="AB32" s="9"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="8"/>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -5744,7 +5744,7 @@
       <c r="U33" t="s">
         <v>32</v>
       </c>
-      <c r="AB33" s="10"/>
+      <c r="AB33" s="9"/>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -5819,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="AB34" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
@@ -5886,7 +5886,7 @@
       <c r="U35" t="s">
         <v>32</v>
       </c>
-      <c r="AB35" s="10"/>
+      <c r="AB35" s="9"/>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -5961,7 +5961,7 @@
         <v>0</v>
       </c>
       <c r="AB36" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.2">
@@ -6028,7 +6028,7 @@
       <c r="U37" t="s">
         <v>32</v>
       </c>
-      <c r="AB37" s="10"/>
+      <c r="AB37" s="9"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -6094,13 +6094,13 @@
       <c r="U38" t="s">
         <v>32</v>
       </c>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="8"/>
-      <c r="AA38" s="8"/>
-      <c r="AB38" s="9"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="8"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -6166,7 +6166,7 @@
       <c r="U39" t="s">
         <v>32</v>
       </c>
-      <c r="AB39" s="10"/>
+      <c r="AB39" s="9"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -6232,13 +6232,13 @@
       <c r="U40" t="s">
         <v>32</v>
       </c>
-      <c r="V40" s="8"/>
-      <c r="W40" s="8"/>
-      <c r="X40" s="8"/>
-      <c r="Y40" s="8"/>
-      <c r="Z40" s="8"/>
-      <c r="AA40" s="8"/>
-      <c r="AB40" s="9"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="8"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -6304,7 +6304,7 @@
       <c r="U41" t="s">
         <v>32</v>
       </c>
-      <c r="AB41" s="10"/>
+      <c r="AB41" s="9"/>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -6377,7 +6377,7 @@
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
       <c r="AB42" s="5" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
@@ -6451,7 +6451,7 @@
       <c r="Z43" s="4"/>
       <c r="AA43" s="4"/>
       <c r="AB43" s="5" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.2">
@@ -6518,13 +6518,13 @@
       <c r="U44" t="s">
         <v>32</v>
       </c>
-      <c r="V44" s="8"/>
-      <c r="W44" s="8"/>
-      <c r="X44" s="8"/>
-      <c r="Y44" s="8"/>
-      <c r="Z44" s="8"/>
-      <c r="AA44" s="8"/>
-      <c r="AB44" s="9"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="8"/>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -6597,7 +6597,7 @@
       <c r="Z45" s="4"/>
       <c r="AA45" s="4"/>
       <c r="AB45" s="5" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.2">
@@ -6673,7 +6673,7 @@
         <v>0</v>
       </c>
       <c r="AB46" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.2">
@@ -6740,7 +6740,7 @@
       <c r="U47" t="s">
         <v>32</v>
       </c>
-      <c r="AB47" s="10"/>
+      <c r="AB47" s="9"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -6806,13 +6806,13 @@
       <c r="U48" t="s">
         <v>32</v>
       </c>
-      <c r="V48" s="8"/>
-      <c r="W48" s="8"/>
-      <c r="X48" s="8"/>
-      <c r="Y48" s="8"/>
-      <c r="Z48" s="8"/>
-      <c r="AA48" s="8"/>
-      <c r="AB48" s="9"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2"/>
+      <c r="AB48" s="8"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -6878,7 +6878,7 @@
       <c r="U49" t="s">
         <v>32</v>
       </c>
-      <c r="AB49" s="10"/>
+      <c r="AB49" s="9"/>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
@@ -6944,13 +6944,13 @@
       <c r="U50" t="s">
         <v>32</v>
       </c>
-      <c r="V50" s="8"/>
-      <c r="W50" s="8"/>
-      <c r="X50" s="8"/>
-      <c r="Y50" s="8"/>
-      <c r="Z50" s="8"/>
-      <c r="AA50" s="8"/>
-      <c r="AB50" s="9"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2"/>
+      <c r="AB50" s="8"/>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
@@ -7025,7 +7025,7 @@
       <c r="Z51" s="4"/>
       <c r="AA51" s="4"/>
       <c r="AB51" s="5" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.2">
@@ -7092,13 +7092,13 @@
       <c r="U52" t="s">
         <v>32</v>
       </c>
-      <c r="V52" s="8"/>
-      <c r="W52" s="8"/>
-      <c r="X52" s="8"/>
-      <c r="Y52" s="8"/>
-      <c r="Z52" s="8"/>
-      <c r="AA52" s="8"/>
-      <c r="AB52" s="9"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
+      <c r="AB52" s="8"/>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
@@ -7164,7 +7164,7 @@
       <c r="U53" t="s">
         <v>32</v>
       </c>
-      <c r="AB53" s="10"/>
+      <c r="AB53" s="9"/>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
@@ -7230,13 +7230,13 @@
       <c r="U54" t="s">
         <v>32</v>
       </c>
-      <c r="V54" s="8"/>
-      <c r="W54" s="8"/>
-      <c r="X54" s="8"/>
-      <c r="Y54" s="8"/>
-      <c r="Z54" s="8"/>
-      <c r="AA54" s="8"/>
-      <c r="AB54" s="9"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2"/>
+      <c r="AA54" s="2"/>
+      <c r="AB54" s="8"/>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
@@ -7302,7 +7302,7 @@
       <c r="U55" t="s">
         <v>32</v>
       </c>
-      <c r="AB55" s="10"/>
+      <c r="AB55" s="9"/>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
@@ -7368,13 +7368,13 @@
       <c r="U56" t="s">
         <v>32</v>
       </c>
-      <c r="V56" s="8"/>
-      <c r="W56" s="8"/>
-      <c r="X56" s="8"/>
-      <c r="Y56" s="8"/>
-      <c r="Z56" s="8"/>
-      <c r="AA56" s="8"/>
-      <c r="AB56" s="9"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="2"/>
+      <c r="AA56" s="2"/>
+      <c r="AB56" s="8"/>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
@@ -7440,7 +7440,7 @@
       <c r="U57" t="s">
         <v>32</v>
       </c>
-      <c r="AB57" s="10"/>
+      <c r="AB57" s="9"/>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
@@ -7506,13 +7506,13 @@
       <c r="U58" t="s">
         <v>32</v>
       </c>
-      <c r="V58" s="8"/>
-      <c r="W58" s="8"/>
-      <c r="X58" s="8"/>
-      <c r="Y58" s="8"/>
-      <c r="Z58" s="8"/>
-      <c r="AA58" s="8"/>
-      <c r="AB58" s="9"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="2"/>
+      <c r="Z58" s="2"/>
+      <c r="AA58" s="2"/>
+      <c r="AB58" s="8"/>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
@@ -7578,7 +7578,7 @@
       <c r="U59" t="s">
         <v>32</v>
       </c>
-      <c r="AB59" s="10"/>
+      <c r="AB59" s="9"/>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
@@ -7644,13 +7644,13 @@
       <c r="U60" t="s">
         <v>32</v>
       </c>
-      <c r="V60" s="8"/>
-      <c r="W60" s="8"/>
-      <c r="X60" s="8"/>
-      <c r="Y60" s="8"/>
-      <c r="Z60" s="8"/>
-      <c r="AA60" s="8"/>
-      <c r="AB60" s="9"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="2"/>
+      <c r="Z60" s="2"/>
+      <c r="AA60" s="2"/>
+      <c r="AB60" s="8"/>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
@@ -7716,7 +7716,7 @@
       <c r="U61" t="s">
         <v>32</v>
       </c>
-      <c r="AB61" s="10"/>
+      <c r="AB61" s="9"/>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
@@ -7782,13 +7782,13 @@
       <c r="U62" t="s">
         <v>32</v>
       </c>
-      <c r="V62" s="8"/>
-      <c r="W62" s="8"/>
-      <c r="X62" s="8"/>
-      <c r="Y62" s="8"/>
-      <c r="Z62" s="8"/>
-      <c r="AA62" s="8"/>
-      <c r="AB62" s="9"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="2"/>
+      <c r="Z62" s="2"/>
+      <c r="AA62" s="2"/>
+      <c r="AB62" s="8"/>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
@@ -7863,7 +7863,7 @@
         <v>0</v>
       </c>
       <c r="AB63" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.2">
@@ -7930,13 +7930,13 @@
       <c r="U64" t="s">
         <v>32</v>
       </c>
-      <c r="V64" s="8"/>
-      <c r="W64" s="8"/>
-      <c r="X64" s="8"/>
-      <c r="Y64" s="8"/>
-      <c r="Z64" s="8"/>
-      <c r="AA64" s="8"/>
-      <c r="AB64" s="9"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="2"/>
+      <c r="X64" s="2"/>
+      <c r="Y64" s="2"/>
+      <c r="Z64" s="2"/>
+      <c r="AA64" s="2"/>
+      <c r="AB64" s="8"/>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
@@ -8002,7 +8002,7 @@
       <c r="U65" t="s">
         <v>32</v>
       </c>
-      <c r="AB65" s="10"/>
+      <c r="AB65" s="9"/>
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
@@ -8068,13 +8068,13 @@
       <c r="U66" t="s">
         <v>32</v>
       </c>
-      <c r="V66" s="8"/>
-      <c r="W66" s="8"/>
-      <c r="X66" s="8"/>
-      <c r="Y66" s="8"/>
-      <c r="Z66" s="8"/>
-      <c r="AA66" s="8"/>
-      <c r="AB66" s="9"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="2"/>
+      <c r="X66" s="2"/>
+      <c r="Y66" s="2"/>
+      <c r="Z66" s="2"/>
+      <c r="AA66" s="2"/>
+      <c r="AB66" s="8"/>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
@@ -8140,7 +8140,7 @@
       <c r="U67" t="s">
         <v>32</v>
       </c>
-      <c r="AB67" s="10"/>
+      <c r="AB67" s="9"/>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
@@ -8206,13 +8206,13 @@
       <c r="U68" t="s">
         <v>32</v>
       </c>
-      <c r="V68" s="8"/>
-      <c r="W68" s="8"/>
-      <c r="X68" s="8"/>
-      <c r="Y68" s="8"/>
-      <c r="Z68" s="8"/>
-      <c r="AA68" s="8"/>
-      <c r="AB68" s="9"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="2"/>
+      <c r="Z68" s="2"/>
+      <c r="AA68" s="2"/>
+      <c r="AB68" s="8"/>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
@@ -8278,7 +8278,7 @@
       <c r="U69" t="s">
         <v>32</v>
       </c>
-      <c r="AB69" s="10"/>
+      <c r="AB69" s="9"/>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="AB70" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.2">
@@ -8420,7 +8420,7 @@
       <c r="U71" t="s">
         <v>32</v>
       </c>
-      <c r="AB71" s="10"/>
+      <c r="AB71" s="9"/>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
@@ -8486,13 +8486,13 @@
       <c r="U72" t="s">
         <v>32</v>
       </c>
-      <c r="V72" s="8"/>
-      <c r="W72" s="8"/>
-      <c r="X72" s="8"/>
-      <c r="Y72" s="8"/>
-      <c r="Z72" s="8"/>
-      <c r="AA72" s="8"/>
-      <c r="AB72" s="9"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="2"/>
+      <c r="X72" s="2"/>
+      <c r="Y72" s="2"/>
+      <c r="Z72" s="2"/>
+      <c r="AA72" s="2"/>
+      <c r="AB72" s="8"/>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
@@ -8558,7 +8558,7 @@
       <c r="U73" t="s">
         <v>32</v>
       </c>
-      <c r="AB73" s="10"/>
+      <c r="AB73" s="9"/>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="AB74" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.2">
@@ -8700,7 +8700,7 @@
       <c r="U75" t="s">
         <v>32</v>
       </c>
-      <c r="AB75" s="10"/>
+      <c r="AB75" s="9"/>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
@@ -8766,13 +8766,13 @@
       <c r="U76" t="s">
         <v>32</v>
       </c>
-      <c r="V76" s="8"/>
-      <c r="W76" s="8"/>
-      <c r="X76" s="8"/>
-      <c r="Y76" s="8"/>
-      <c r="Z76" s="8"/>
-      <c r="AA76" s="8"/>
-      <c r="AB76" s="9"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
+      <c r="X76" s="2"/>
+      <c r="Y76" s="2"/>
+      <c r="Z76" s="2"/>
+      <c r="AA76" s="2"/>
+      <c r="AB76" s="8"/>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
@@ -8838,7 +8838,7 @@
       <c r="U77" t="s">
         <v>32</v>
       </c>
-      <c r="AB77" s="10"/>
+      <c r="AB77" s="9"/>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
@@ -8913,7 +8913,7 @@
         <v>0</v>
       </c>
       <c r="AB78" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.2">
@@ -8980,7 +8980,7 @@
       <c r="U79" t="s">
         <v>32</v>
       </c>
-      <c r="AB79" s="10"/>
+      <c r="AB79" s="9"/>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
@@ -9046,13 +9046,13 @@
       <c r="U80" t="s">
         <v>32</v>
       </c>
-      <c r="V80" s="8"/>
-      <c r="W80" s="8"/>
-      <c r="X80" s="8"/>
-      <c r="Y80" s="8"/>
-      <c r="Z80" s="8"/>
-      <c r="AA80" s="8"/>
-      <c r="AB80" s="9"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="2"/>
+      <c r="X80" s="2"/>
+      <c r="Y80" s="2"/>
+      <c r="Z80" s="2"/>
+      <c r="AA80" s="2"/>
+      <c r="AB80" s="8"/>
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
@@ -9118,7 +9118,7 @@
       <c r="U81" t="s">
         <v>32</v>
       </c>
-      <c r="AB81" s="10"/>
+      <c r="AB81" s="9"/>
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
@@ -9184,13 +9184,13 @@
       <c r="U82" t="s">
         <v>32</v>
       </c>
-      <c r="V82" s="8"/>
-      <c r="W82" s="8"/>
-      <c r="X82" s="8"/>
-      <c r="Y82" s="8"/>
-      <c r="Z82" s="8"/>
-      <c r="AA82" s="8"/>
-      <c r="AB82" s="9"/>
+      <c r="V82" s="2"/>
+      <c r="W82" s="2"/>
+      <c r="X82" s="2"/>
+      <c r="Y82" s="2"/>
+      <c r="Z82" s="2"/>
+      <c r="AA82" s="2"/>
+      <c r="AB82" s="8"/>
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
@@ -9263,7 +9263,7 @@
       <c r="Z83" s="4"/>
       <c r="AA83" s="4"/>
       <c r="AB83" s="5" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.2">
@@ -9330,13 +9330,13 @@
       <c r="U84" t="s">
         <v>32</v>
       </c>
-      <c r="V84" s="8"/>
-      <c r="W84" s="8"/>
-      <c r="X84" s="8"/>
-      <c r="Y84" s="8"/>
-      <c r="Z84" s="8"/>
-      <c r="AA84" s="8"/>
-      <c r="AB84" s="9"/>
+      <c r="V84" s="2"/>
+      <c r="W84" s="2"/>
+      <c r="X84" s="2"/>
+      <c r="Y84" s="2"/>
+      <c r="Z84" s="2"/>
+      <c r="AA84" s="2"/>
+      <c r="AB84" s="8"/>
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
@@ -9402,7 +9402,7 @@
       <c r="U85" t="s">
         <v>32</v>
       </c>
-      <c r="AB85" s="10"/>
+      <c r="AB85" s="9"/>
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
@@ -9468,13 +9468,13 @@
       <c r="U86" t="s">
         <v>32</v>
       </c>
-      <c r="V86" s="8"/>
-      <c r="W86" s="8"/>
-      <c r="X86" s="8"/>
-      <c r="Y86" s="8"/>
-      <c r="Z86" s="8"/>
-      <c r="AA86" s="8"/>
-      <c r="AB86" s="9"/>
+      <c r="V86" s="2"/>
+      <c r="W86" s="2"/>
+      <c r="X86" s="2"/>
+      <c r="Y86" s="2"/>
+      <c r="Z86" s="2"/>
+      <c r="AA86" s="2"/>
+      <c r="AB86" s="8"/>
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
@@ -9540,7 +9540,7 @@
       <c r="U87" t="s">
         <v>32</v>
       </c>
-      <c r="AB87" s="10"/>
+      <c r="AB87" s="9"/>
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
@@ -9606,13 +9606,13 @@
       <c r="U88" t="s">
         <v>32</v>
       </c>
-      <c r="V88" s="8"/>
-      <c r="W88" s="8"/>
-      <c r="X88" s="8"/>
-      <c r="Y88" s="8"/>
-      <c r="Z88" s="8"/>
-      <c r="AA88" s="8"/>
-      <c r="AB88" s="9"/>
+      <c r="V88" s="2"/>
+      <c r="W88" s="2"/>
+      <c r="X88" s="2"/>
+      <c r="Y88" s="2"/>
+      <c r="Z88" s="2"/>
+      <c r="AA88" s="2"/>
+      <c r="AB88" s="8"/>
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
@@ -9678,7 +9678,7 @@
       <c r="U89" t="s">
         <v>32</v>
       </c>
-      <c r="AB89" s="10"/>
+      <c r="AB89" s="9"/>
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
@@ -9744,13 +9744,13 @@
       <c r="U90" t="s">
         <v>32</v>
       </c>
-      <c r="V90" s="8"/>
-      <c r="W90" s="8"/>
-      <c r="X90" s="8"/>
-      <c r="Y90" s="8"/>
-      <c r="Z90" s="8"/>
-      <c r="AA90" s="8"/>
-      <c r="AB90" s="9"/>
+      <c r="V90" s="2"/>
+      <c r="W90" s="2"/>
+      <c r="X90" s="2"/>
+      <c r="Y90" s="2"/>
+      <c r="Z90" s="2"/>
+      <c r="AA90" s="2"/>
+      <c r="AB90" s="8"/>
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
@@ -9816,7 +9816,7 @@
       <c r="U91" t="s">
         <v>32</v>
       </c>
-      <c r="AB91" s="10"/>
+      <c r="AB91" s="9"/>
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
@@ -9882,13 +9882,13 @@
       <c r="U92" t="s">
         <v>32</v>
       </c>
-      <c r="V92" s="8"/>
-      <c r="W92" s="8"/>
-      <c r="X92" s="8"/>
-      <c r="Y92" s="8"/>
-      <c r="Z92" s="8"/>
-      <c r="AA92" s="8"/>
-      <c r="AB92" s="9"/>
+      <c r="V92" s="2"/>
+      <c r="W92" s="2"/>
+      <c r="X92" s="2"/>
+      <c r="Y92" s="2"/>
+      <c r="Z92" s="2"/>
+      <c r="AA92" s="2"/>
+      <c r="AB92" s="8"/>
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
@@ -9954,7 +9954,7 @@
       <c r="U93" t="s">
         <v>32</v>
       </c>
-      <c r="AB93" s="10"/>
+      <c r="AB93" s="9"/>
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
@@ -10020,13 +10020,13 @@
       <c r="U94" t="s">
         <v>32</v>
       </c>
-      <c r="V94" s="8"/>
-      <c r="W94" s="8"/>
-      <c r="X94" s="8"/>
-      <c r="Y94" s="8"/>
-      <c r="Z94" s="8"/>
-      <c r="AA94" s="8"/>
-      <c r="AB94" s="9"/>
+      <c r="V94" s="2"/>
+      <c r="W94" s="2"/>
+      <c r="X94" s="2"/>
+      <c r="Y94" s="2"/>
+      <c r="Z94" s="2"/>
+      <c r="AA94" s="2"/>
+      <c r="AB94" s="8"/>
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
@@ -10092,7 +10092,7 @@
       <c r="U95" t="s">
         <v>32</v>
       </c>
-      <c r="AB95" s="10"/>
+      <c r="AB95" s="9"/>
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
@@ -10158,13 +10158,13 @@
       <c r="U96" t="s">
         <v>32</v>
       </c>
-      <c r="V96" s="8"/>
-      <c r="W96" s="8"/>
-      <c r="X96" s="8"/>
-      <c r="Y96" s="8"/>
-      <c r="Z96" s="8"/>
-      <c r="AA96" s="8"/>
-      <c r="AB96" s="9"/>
+      <c r="V96" s="2"/>
+      <c r="W96" s="2"/>
+      <c r="X96" s="2"/>
+      <c r="Y96" s="2"/>
+      <c r="Z96" s="2"/>
+      <c r="AA96" s="2"/>
+      <c r="AB96" s="8"/>
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
@@ -10230,7 +10230,7 @@
       <c r="U97" t="s">
         <v>32</v>
       </c>
-      <c r="AB97" s="10"/>
+      <c r="AB97" s="9"/>
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
@@ -10305,7 +10305,7 @@
         <v>0</v>
       </c>
       <c r="AB98" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.2">
@@ -10383,7 +10383,7 @@
         <v>0</v>
       </c>
       <c r="AB99" s="7" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.2">
@@ -10450,13 +10450,13 @@
       <c r="U100" t="s">
         <v>32</v>
       </c>
-      <c r="V100" s="8"/>
-      <c r="W100" s="8"/>
-      <c r="X100" s="8"/>
-      <c r="Y100" s="8"/>
-      <c r="Z100" s="8"/>
-      <c r="AA100" s="8"/>
-      <c r="AB100" s="9"/>
+      <c r="V100" s="2"/>
+      <c r="W100" s="2"/>
+      <c r="X100" s="2"/>
+      <c r="Y100" s="2"/>
+      <c r="Z100" s="2"/>
+      <c r="AA100" s="2"/>
+      <c r="AB100" s="8"/>
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
@@ -10522,7 +10522,7 @@
       <c r="U101" t="s">
         <v>32</v>
       </c>
-      <c r="AB101" s="10"/>
+      <c r="AB101" s="9"/>
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
@@ -10588,13 +10588,13 @@
       <c r="U102" t="s">
         <v>32</v>
       </c>
-      <c r="V102" s="8"/>
-      <c r="W102" s="8"/>
-      <c r="X102" s="8"/>
-      <c r="Y102" s="8"/>
-      <c r="Z102" s="8"/>
-      <c r="AA102" s="8"/>
-      <c r="AB102" s="9"/>
+      <c r="V102" s="2"/>
+      <c r="W102" s="2"/>
+      <c r="X102" s="2"/>
+      <c r="Y102" s="2"/>
+      <c r="Z102" s="2"/>
+      <c r="AA102" s="2"/>
+      <c r="AB102" s="8"/>
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
@@ -10660,7 +10660,7 @@
       <c r="U103" t="s">
         <v>32</v>
       </c>
-      <c r="AB103" s="10"/>
+      <c r="AB103" s="9"/>
     </row>
     <row r="104" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
@@ -10726,13 +10726,13 @@
       <c r="U104" t="s">
         <v>32</v>
       </c>
-      <c r="V104" s="8"/>
-      <c r="W104" s="8"/>
-      <c r="X104" s="8"/>
-      <c r="Y104" s="8"/>
-      <c r="Z104" s="8"/>
-      <c r="AA104" s="8"/>
-      <c r="AB104" s="9"/>
+      <c r="V104" s="2"/>
+      <c r="W104" s="2"/>
+      <c r="X104" s="2"/>
+      <c r="Y104" s="2"/>
+      <c r="Z104" s="2"/>
+      <c r="AA104" s="2"/>
+      <c r="AB104" s="8"/>
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
@@ -10798,7 +10798,7 @@
       <c r="U105" t="s">
         <v>32</v>
       </c>
-      <c r="AB105" s="10"/>
+      <c r="AB105" s="9"/>
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
@@ -10875,7 +10875,7 @@
         <v>0</v>
       </c>
       <c r="AB106" s="7" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.2">
@@ -10942,7 +10942,7 @@
       <c r="U107" t="s">
         <v>32</v>
       </c>
-      <c r="AB107" s="10"/>
+      <c r="AB107" s="9"/>
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
@@ -11008,13 +11008,13 @@
       <c r="U108" t="s">
         <v>32</v>
       </c>
-      <c r="V108" s="8"/>
-      <c r="W108" s="8"/>
-      <c r="X108" s="8"/>
-      <c r="Y108" s="8"/>
-      <c r="Z108" s="8"/>
-      <c r="AA108" s="8"/>
-      <c r="AB108" s="9"/>
+      <c r="V108" s="2"/>
+      <c r="W108" s="2"/>
+      <c r="X108" s="2"/>
+      <c r="Y108" s="2"/>
+      <c r="Z108" s="2"/>
+      <c r="AA108" s="2"/>
+      <c r="AB108" s="8"/>
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
@@ -11080,7 +11080,7 @@
       <c r="U109" t="s">
         <v>32</v>
       </c>
-      <c r="AB109" s="10"/>
+      <c r="AB109" s="9"/>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
@@ -11146,13 +11146,13 @@
       <c r="U110" t="s">
         <v>32</v>
       </c>
-      <c r="V110" s="8"/>
-      <c r="W110" s="8"/>
-      <c r="X110" s="8"/>
-      <c r="Y110" s="8"/>
-      <c r="Z110" s="8"/>
-      <c r="AA110" s="8"/>
-      <c r="AB110" s="9"/>
+      <c r="V110" s="2"/>
+      <c r="W110" s="2"/>
+      <c r="X110" s="2"/>
+      <c r="Y110" s="2"/>
+      <c r="Z110" s="2"/>
+      <c r="AA110" s="2"/>
+      <c r="AB110" s="8"/>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
@@ -11227,7 +11227,7 @@
       <c r="Z111" s="4"/>
       <c r="AA111" s="4"/>
       <c r="AB111" s="5" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.2">
@@ -11294,13 +11294,13 @@
       <c r="U112" t="s">
         <v>32</v>
       </c>
-      <c r="V112" s="8"/>
-      <c r="W112" s="8"/>
-      <c r="X112" s="8"/>
-      <c r="Y112" s="8"/>
-      <c r="Z112" s="8"/>
-      <c r="AA112" s="8"/>
-      <c r="AB112" s="9"/>
+      <c r="V112" s="2"/>
+      <c r="W112" s="2"/>
+      <c r="X112" s="2"/>
+      <c r="Y112" s="2"/>
+      <c r="Z112" s="2"/>
+      <c r="AA112" s="2"/>
+      <c r="AB112" s="8"/>
     </row>
     <row r="113" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
@@ -11366,7 +11366,7 @@
       <c r="U113" t="s">
         <v>32</v>
       </c>
-      <c r="AB113" s="10"/>
+      <c r="AB113" s="9"/>
     </row>
     <row r="114" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
@@ -11432,13 +11432,13 @@
       <c r="U114" t="s">
         <v>32</v>
       </c>
-      <c r="V114" s="8"/>
-      <c r="W114" s="8"/>
-      <c r="X114" s="8"/>
-      <c r="Y114" s="8"/>
-      <c r="Z114" s="8"/>
-      <c r="AA114" s="8"/>
-      <c r="AB114" s="9"/>
+      <c r="V114" s="2"/>
+      <c r="W114" s="2"/>
+      <c r="X114" s="2"/>
+      <c r="Y114" s="2"/>
+      <c r="Z114" s="2"/>
+      <c r="AA114" s="2"/>
+      <c r="AB114" s="8"/>
     </row>
     <row r="115" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
@@ -11504,7 +11504,7 @@
       <c r="U115" t="s">
         <v>32</v>
       </c>
-      <c r="AB115" s="10"/>
+      <c r="AB115" s="9"/>
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
@@ -11570,13 +11570,13 @@
       <c r="U116" t="s">
         <v>32</v>
       </c>
-      <c r="V116" s="8"/>
-      <c r="W116" s="8"/>
-      <c r="X116" s="8"/>
-      <c r="Y116" s="8"/>
-      <c r="Z116" s="8"/>
-      <c r="AA116" s="8"/>
-      <c r="AB116" s="9"/>
+      <c r="V116" s="2"/>
+      <c r="W116" s="2"/>
+      <c r="X116" s="2"/>
+      <c r="Y116" s="2"/>
+      <c r="Z116" s="2"/>
+      <c r="AA116" s="2"/>
+      <c r="AB116" s="8"/>
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
@@ -11642,7 +11642,7 @@
       <c r="U117" t="s">
         <v>32</v>
       </c>
-      <c r="AB117" s="10"/>
+      <c r="AB117" s="9"/>
     </row>
     <row r="118" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
@@ -11717,7 +11717,7 @@
         <v>0</v>
       </c>
       <c r="AB118" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="119" spans="1:28" x14ac:dyDescent="0.2">
@@ -11793,7 +11793,7 @@
         <v>0</v>
       </c>
       <c r="AB119" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="120" spans="1:28" x14ac:dyDescent="0.2">
@@ -11860,13 +11860,13 @@
       <c r="U120" t="s">
         <v>32</v>
       </c>
-      <c r="V120" s="8"/>
-      <c r="W120" s="8"/>
-      <c r="X120" s="8"/>
-      <c r="Y120" s="8"/>
-      <c r="Z120" s="8"/>
-      <c r="AA120" s="8"/>
-      <c r="AB120" s="9"/>
+      <c r="V120" s="2"/>
+      <c r="W120" s="2"/>
+      <c r="X120" s="2"/>
+      <c r="Y120" s="2"/>
+      <c r="Z120" s="2"/>
+      <c r="AA120" s="2"/>
+      <c r="AB120" s="8"/>
     </row>
     <row r="121" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
@@ -11932,7 +11932,7 @@
       <c r="U121" t="s">
         <v>32</v>
       </c>
-      <c r="AB121" s="10"/>
+      <c r="AB121" s="9"/>
     </row>
     <row r="122" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
@@ -11998,13 +11998,13 @@
       <c r="U122" t="s">
         <v>32</v>
       </c>
-      <c r="V122" s="8"/>
-      <c r="W122" s="8"/>
-      <c r="X122" s="8"/>
-      <c r="Y122" s="8"/>
-      <c r="Z122" s="8"/>
-      <c r="AA122" s="8"/>
-      <c r="AB122" s="9"/>
+      <c r="V122" s="2"/>
+      <c r="W122" s="2"/>
+      <c r="X122" s="2"/>
+      <c r="Y122" s="2"/>
+      <c r="Z122" s="2"/>
+      <c r="AA122" s="2"/>
+      <c r="AB122" s="8"/>
     </row>
     <row r="123" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
@@ -12070,7 +12070,7 @@
       <c r="U123" t="s">
         <v>32</v>
       </c>
-      <c r="AB123" s="10"/>
+      <c r="AB123" s="9"/>
     </row>
     <row r="124" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
@@ -12136,13 +12136,13 @@
       <c r="U124" t="s">
         <v>32</v>
       </c>
-      <c r="V124" s="8"/>
-      <c r="W124" s="8"/>
-      <c r="X124" s="8"/>
-      <c r="Y124" s="8"/>
-      <c r="Z124" s="8"/>
-      <c r="AA124" s="8"/>
-      <c r="AB124" s="9"/>
+      <c r="V124" s="2"/>
+      <c r="W124" s="2"/>
+      <c r="X124" s="2"/>
+      <c r="Y124" s="2"/>
+      <c r="Z124" s="2"/>
+      <c r="AA124" s="2"/>
+      <c r="AB124" s="8"/>
     </row>
     <row r="125" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
@@ -12208,7 +12208,7 @@
       <c r="U125" t="s">
         <v>32</v>
       </c>
-      <c r="AB125" s="10"/>
+      <c r="AB125" s="9"/>
     </row>
     <row r="126" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
@@ -12274,13 +12274,13 @@
       <c r="U126" t="s">
         <v>32</v>
       </c>
-      <c r="V126" s="8"/>
-      <c r="W126" s="8"/>
-      <c r="X126" s="8"/>
-      <c r="Y126" s="8"/>
-      <c r="Z126" s="8"/>
-      <c r="AA126" s="8"/>
-      <c r="AB126" s="9"/>
+      <c r="V126" s="2"/>
+      <c r="W126" s="2"/>
+      <c r="X126" s="2"/>
+      <c r="Y126" s="2"/>
+      <c r="Z126" s="2"/>
+      <c r="AA126" s="2"/>
+      <c r="AB126" s="8"/>
     </row>
     <row r="127" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
@@ -12346,7 +12346,7 @@
       <c r="U127" t="s">
         <v>32</v>
       </c>
-      <c r="AB127" s="10"/>
+      <c r="AB127" s="9"/>
     </row>
     <row r="128" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
@@ -12423,7 +12423,7 @@
         <v>0</v>
       </c>
       <c r="AB128" s="7" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
     </row>
     <row r="129" spans="1:28" x14ac:dyDescent="0.2">
@@ -12490,7 +12490,7 @@
       <c r="U129" t="s">
         <v>32</v>
       </c>
-      <c r="AB129" s="10"/>
+      <c r="AB129" s="9"/>
     </row>
     <row r="130" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
@@ -12556,13 +12556,13 @@
       <c r="U130" t="s">
         <v>32</v>
       </c>
-      <c r="V130" s="8"/>
-      <c r="W130" s="8"/>
-      <c r="X130" s="8"/>
-      <c r="Y130" s="8"/>
-      <c r="Z130" s="8"/>
-      <c r="AA130" s="8"/>
-      <c r="AB130" s="9"/>
+      <c r="V130" s="2"/>
+      <c r="W130" s="2"/>
+      <c r="X130" s="2"/>
+      <c r="Y130" s="2"/>
+      <c r="Z130" s="2"/>
+      <c r="AA130" s="2"/>
+      <c r="AB130" s="8"/>
     </row>
     <row r="131" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
@@ -12635,7 +12635,7 @@
       <c r="Z131" s="4"/>
       <c r="AA131" s="4"/>
       <c r="AB131" s="5" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
     </row>
     <row r="132" spans="1:28" x14ac:dyDescent="0.2">
@@ -12711,7 +12711,7 @@
         <v>0</v>
       </c>
       <c r="AB132" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="133" spans="1:28" x14ac:dyDescent="0.2">
@@ -12778,7 +12778,7 @@
       <c r="U133" t="s">
         <v>32</v>
       </c>
-      <c r="AB133" s="10"/>
+      <c r="AB133" s="9"/>
     </row>
     <row r="134" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
@@ -12844,13 +12844,13 @@
       <c r="U134" t="s">
         <v>32</v>
       </c>
-      <c r="V134" s="8"/>
-      <c r="W134" s="8"/>
-      <c r="X134" s="8"/>
-      <c r="Y134" s="8"/>
-      <c r="Z134" s="8"/>
-      <c r="AA134" s="8"/>
-      <c r="AB134" s="9"/>
+      <c r="V134" s="2"/>
+      <c r="W134" s="2"/>
+      <c r="X134" s="2"/>
+      <c r="Y134" s="2"/>
+      <c r="Z134" s="2"/>
+      <c r="AA134" s="2"/>
+      <c r="AB134" s="8"/>
     </row>
     <row r="135" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
@@ -12916,7 +12916,7 @@
       <c r="U135" t="s">
         <v>32</v>
       </c>
-      <c r="AB135" s="10"/>
+      <c r="AB135" s="9"/>
     </row>
     <row r="136" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
@@ -12982,13 +12982,13 @@
       <c r="U136" t="s">
         <v>32</v>
       </c>
-      <c r="V136" s="8"/>
-      <c r="W136" s="8"/>
-      <c r="X136" s="8"/>
-      <c r="Y136" s="8"/>
-      <c r="Z136" s="8"/>
-      <c r="AA136" s="8"/>
-      <c r="AB136" s="9"/>
+      <c r="V136" s="2"/>
+      <c r="W136" s="2"/>
+      <c r="X136" s="2"/>
+      <c r="Y136" s="2"/>
+      <c r="Z136" s="2"/>
+      <c r="AA136" s="2"/>
+      <c r="AB136" s="8"/>
     </row>
     <row r="137" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
@@ -13054,7 +13054,7 @@
       <c r="U137" t="s">
         <v>32</v>
       </c>
-      <c r="AB137" s="10"/>
+      <c r="AB137" s="9"/>
     </row>
     <row r="138" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
@@ -13120,13 +13120,13 @@
       <c r="U138" t="s">
         <v>32</v>
       </c>
-      <c r="V138" s="8"/>
-      <c r="W138" s="8"/>
-      <c r="X138" s="8"/>
-      <c r="Y138" s="8"/>
-      <c r="Z138" s="8"/>
-      <c r="AA138" s="8"/>
-      <c r="AB138" s="9"/>
+      <c r="V138" s="2"/>
+      <c r="W138" s="2"/>
+      <c r="X138" s="2"/>
+      <c r="Y138" s="2"/>
+      <c r="Z138" s="2"/>
+      <c r="AA138" s="2"/>
+      <c r="AB138" s="8"/>
     </row>
     <row r="139" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
@@ -13201,7 +13201,7 @@
       <c r="Z139" s="4"/>
       <c r="AA139" s="4"/>
       <c r="AB139" s="5" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
     </row>
     <row r="140" spans="1:28" x14ac:dyDescent="0.2">
@@ -13268,13 +13268,13 @@
       <c r="U140" t="s">
         <v>32</v>
       </c>
-      <c r="V140" s="8"/>
-      <c r="W140" s="8"/>
-      <c r="X140" s="8"/>
-      <c r="Y140" s="8"/>
-      <c r="Z140" s="8"/>
-      <c r="AA140" s="8"/>
-      <c r="AB140" s="9"/>
+      <c r="V140" s="2"/>
+      <c r="W140" s="2"/>
+      <c r="X140" s="2"/>
+      <c r="Y140" s="2"/>
+      <c r="Z140" s="2"/>
+      <c r="AA140" s="2"/>
+      <c r="AB140" s="8"/>
     </row>
     <row r="141" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
@@ -13340,7 +13340,7 @@
       <c r="U141" t="s">
         <v>32</v>
       </c>
-      <c r="AB141" s="10"/>
+      <c r="AB141" s="9"/>
     </row>
     <row r="142" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
@@ -13406,13 +13406,13 @@
       <c r="U142" t="s">
         <v>32</v>
       </c>
-      <c r="V142" s="8"/>
-      <c r="W142" s="8"/>
-      <c r="X142" s="8"/>
-      <c r="Y142" s="8"/>
-      <c r="Z142" s="8"/>
-      <c r="AA142" s="8"/>
-      <c r="AB142" s="9"/>
+      <c r="V142" s="2"/>
+      <c r="W142" s="2"/>
+      <c r="X142" s="2"/>
+      <c r="Y142" s="2"/>
+      <c r="Z142" s="2"/>
+      <c r="AA142" s="2"/>
+      <c r="AB142" s="8"/>
     </row>
     <row r="143" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
@@ -13478,7 +13478,7 @@
       <c r="U143" t="s">
         <v>32</v>
       </c>
-      <c r="AB143" s="10"/>
+      <c r="AB143" s="9"/>
     </row>
     <row r="144" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
@@ -13544,13 +13544,13 @@
       <c r="U144" t="s">
         <v>32</v>
       </c>
-      <c r="V144" s="8"/>
-      <c r="W144" s="8"/>
-      <c r="X144" s="8"/>
-      <c r="Y144" s="8"/>
-      <c r="Z144" s="8"/>
-      <c r="AA144" s="8"/>
-      <c r="AB144" s="9"/>
+      <c r="V144" s="2"/>
+      <c r="W144" s="2"/>
+      <c r="X144" s="2"/>
+      <c r="Y144" s="2"/>
+      <c r="Z144" s="2"/>
+      <c r="AA144" s="2"/>
+      <c r="AB144" s="8"/>
     </row>
     <row r="145" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
@@ -13625,7 +13625,7 @@
         <v>0</v>
       </c>
       <c r="AB145" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="146" spans="1:28" x14ac:dyDescent="0.2">
@@ -13701,7 +13701,7 @@
       <c r="Z146" s="4"/>
       <c r="AA146" s="4"/>
       <c r="AB146" s="5" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
     </row>
     <row r="147" spans="1:28" x14ac:dyDescent="0.2">
@@ -13768,7 +13768,7 @@
       <c r="U147" t="s">
         <v>32</v>
       </c>
-      <c r="AB147" s="10"/>
+      <c r="AB147" s="9"/>
     </row>
     <row r="148" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
@@ -13834,13 +13834,13 @@
       <c r="U148" t="s">
         <v>32</v>
       </c>
-      <c r="V148" s="8"/>
-      <c r="W148" s="8"/>
-      <c r="X148" s="8"/>
-      <c r="Y148" s="8"/>
-      <c r="Z148" s="8"/>
-      <c r="AA148" s="8"/>
-      <c r="AB148" s="9"/>
+      <c r="V148" s="2"/>
+      <c r="W148" s="2"/>
+      <c r="X148" s="2"/>
+      <c r="Y148" s="2"/>
+      <c r="Z148" s="2"/>
+      <c r="AA148" s="2"/>
+      <c r="AB148" s="8"/>
     </row>
     <row r="149" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
@@ -13906,7 +13906,7 @@
       <c r="U149" t="s">
         <v>32</v>
       </c>
-      <c r="AB149" s="10"/>
+      <c r="AB149" s="9"/>
     </row>
     <row r="150" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
@@ -13972,13 +13972,13 @@
       <c r="U150" t="s">
         <v>32</v>
       </c>
-      <c r="V150" s="8"/>
-      <c r="W150" s="8"/>
-      <c r="X150" s="8"/>
-      <c r="Y150" s="8"/>
-      <c r="Z150" s="8"/>
-      <c r="AA150" s="8"/>
-      <c r="AB150" s="9"/>
+      <c r="V150" s="2"/>
+      <c r="W150" s="2"/>
+      <c r="X150" s="2"/>
+      <c r="Y150" s="2"/>
+      <c r="Z150" s="2"/>
+      <c r="AA150" s="2"/>
+      <c r="AB150" s="8"/>
     </row>
     <row r="151" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
@@ -14044,7 +14044,7 @@
       <c r="U151" t="s">
         <v>32</v>
       </c>
-      <c r="AB151" s="10"/>
+      <c r="AB151" s="9"/>
     </row>
     <row r="152" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
@@ -14119,7 +14119,7 @@
         <v>0</v>
       </c>
       <c r="AB152" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="153" spans="1:28" x14ac:dyDescent="0.2">
@@ -14186,7 +14186,7 @@
       <c r="U153" t="s">
         <v>32</v>
       </c>
-      <c r="AB153" s="10"/>
+      <c r="AB153" s="9"/>
     </row>
     <row r="154" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
@@ -14252,13 +14252,13 @@
       <c r="U154" t="s">
         <v>32</v>
       </c>
-      <c r="V154" s="8"/>
-      <c r="W154" s="8"/>
-      <c r="X154" s="8"/>
-      <c r="Y154" s="8"/>
-      <c r="Z154" s="8"/>
-      <c r="AA154" s="8"/>
-      <c r="AB154" s="9"/>
+      <c r="V154" s="2"/>
+      <c r="W154" s="2"/>
+      <c r="X154" s="2"/>
+      <c r="Y154" s="2"/>
+      <c r="Z154" s="2"/>
+      <c r="AA154" s="2"/>
+      <c r="AB154" s="8"/>
     </row>
     <row r="155" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
@@ -14333,7 +14333,7 @@
         <v>0</v>
       </c>
       <c r="AB155" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="156" spans="1:28" x14ac:dyDescent="0.2">
@@ -14400,13 +14400,13 @@
       <c r="U156" t="s">
         <v>32</v>
       </c>
-      <c r="V156" s="8"/>
-      <c r="W156" s="8"/>
-      <c r="X156" s="8"/>
-      <c r="Y156" s="8"/>
-      <c r="Z156" s="8"/>
-      <c r="AA156" s="8"/>
-      <c r="AB156" s="9"/>
+      <c r="V156" s="2"/>
+      <c r="W156" s="2"/>
+      <c r="X156" s="2"/>
+      <c r="Y156" s="2"/>
+      <c r="Z156" s="2"/>
+      <c r="AA156" s="2"/>
+      <c r="AB156" s="8"/>
     </row>
     <row r="157" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
@@ -14481,7 +14481,7 @@
         <v>0</v>
       </c>
       <c r="AB157" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="158" spans="1:28" x14ac:dyDescent="0.2">
@@ -14548,13 +14548,13 @@
       <c r="U158" t="s">
         <v>32</v>
       </c>
-      <c r="V158" s="8"/>
-      <c r="W158" s="8"/>
-      <c r="X158" s="8"/>
-      <c r="Y158" s="8"/>
-      <c r="Z158" s="8"/>
-      <c r="AA158" s="8"/>
-      <c r="AB158" s="9"/>
+      <c r="V158" s="2"/>
+      <c r="W158" s="2"/>
+      <c r="X158" s="2"/>
+      <c r="Y158" s="2"/>
+      <c r="Z158" s="2"/>
+      <c r="AA158" s="2"/>
+      <c r="AB158" s="8"/>
     </row>
     <row r="159" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
@@ -14620,7 +14620,7 @@
       <c r="U159" t="s">
         <v>32</v>
       </c>
-      <c r="AB159" s="10"/>
+      <c r="AB159" s="9"/>
     </row>
     <row r="160" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
@@ -14686,13 +14686,13 @@
       <c r="U160" t="s">
         <v>32</v>
       </c>
-      <c r="V160" s="8"/>
-      <c r="W160" s="8"/>
-      <c r="X160" s="8"/>
-      <c r="Y160" s="8"/>
-      <c r="Z160" s="8"/>
-      <c r="AA160" s="8"/>
-      <c r="AB160" s="9"/>
+      <c r="V160" s="2"/>
+      <c r="W160" s="2"/>
+      <c r="X160" s="2"/>
+      <c r="Y160" s="2"/>
+      <c r="Z160" s="2"/>
+      <c r="AA160" s="2"/>
+      <c r="AB160" s="8"/>
     </row>
     <row r="161" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
@@ -14758,7 +14758,7 @@
       <c r="U161" t="s">
         <v>32</v>
       </c>
-      <c r="AB161" s="10"/>
+      <c r="AB161" s="9"/>
     </row>
     <row r="162" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
@@ -14824,13 +14824,13 @@
       <c r="U162" t="s">
         <v>32</v>
       </c>
-      <c r="V162" s="8"/>
-      <c r="W162" s="8"/>
-      <c r="X162" s="8"/>
-      <c r="Y162" s="8"/>
-      <c r="Z162" s="8"/>
-      <c r="AA162" s="8"/>
-      <c r="AB162" s="9"/>
+      <c r="V162" s="2"/>
+      <c r="W162" s="2"/>
+      <c r="X162" s="2"/>
+      <c r="Y162" s="2"/>
+      <c r="Z162" s="2"/>
+      <c r="AA162" s="2"/>
+      <c r="AB162" s="8"/>
     </row>
     <row r="163" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
@@ -14896,7 +14896,7 @@
       <c r="U163" t="s">
         <v>32</v>
       </c>
-      <c r="AB163" s="10"/>
+      <c r="AB163" s="9"/>
     </row>
     <row r="164" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
@@ -14962,13 +14962,13 @@
       <c r="U164" t="s">
         <v>32</v>
       </c>
-      <c r="V164" s="8"/>
-      <c r="W164" s="8"/>
-      <c r="X164" s="8"/>
-      <c r="Y164" s="8"/>
-      <c r="Z164" s="8"/>
-      <c r="AA164" s="8"/>
-      <c r="AB164" s="9"/>
+      <c r="V164" s="2"/>
+      <c r="W164" s="2"/>
+      <c r="X164" s="2"/>
+      <c r="Y164" s="2"/>
+      <c r="Z164" s="2"/>
+      <c r="AA164" s="2"/>
+      <c r="AB164" s="8"/>
     </row>
     <row r="165" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
@@ -15034,7 +15034,7 @@
       <c r="U165" t="s">
         <v>32</v>
       </c>
-      <c r="AB165" s="10"/>
+      <c r="AB165" s="9"/>
     </row>
     <row r="166" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
@@ -15107,7 +15107,7 @@
       <c r="Z166" s="4"/>
       <c r="AA166" s="4"/>
       <c r="AB166" s="5" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
     </row>
     <row r="167" spans="1:28" x14ac:dyDescent="0.2">
@@ -15174,7 +15174,7 @@
       <c r="U167" t="s">
         <v>32</v>
       </c>
-      <c r="AB167" s="10"/>
+      <c r="AB167" s="9"/>
     </row>
     <row r="168" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
@@ -15240,13 +15240,13 @@
       <c r="U168" t="s">
         <v>32</v>
       </c>
-      <c r="V168" s="8"/>
-      <c r="W168" s="8"/>
-      <c r="X168" s="8"/>
-      <c r="Y168" s="8"/>
-      <c r="Z168" s="8"/>
-      <c r="AA168" s="8"/>
-      <c r="AB168" s="9"/>
+      <c r="V168" s="2"/>
+      <c r="W168" s="2"/>
+      <c r="X168" s="2"/>
+      <c r="Y168" s="2"/>
+      <c r="Z168" s="2"/>
+      <c r="AA168" s="2"/>
+      <c r="AB168" s="8"/>
     </row>
     <row r="169" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
@@ -15319,7 +15319,7 @@
       <c r="Z169" s="4"/>
       <c r="AA169" s="4"/>
       <c r="AB169" s="5" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
     </row>
     <row r="170" spans="1:28" x14ac:dyDescent="0.2">
@@ -15397,7 +15397,7 @@
         <v>0</v>
       </c>
       <c r="AB170" s="7" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
     </row>
     <row r="171" spans="1:28" x14ac:dyDescent="0.2">
@@ -15464,7 +15464,7 @@
       <c r="U171" t="s">
         <v>32</v>
       </c>
-      <c r="AB171" s="10"/>
+      <c r="AB171" s="9"/>
     </row>
     <row r="172" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
@@ -15530,13 +15530,13 @@
       <c r="U172" t="s">
         <v>32</v>
       </c>
-      <c r="V172" s="8"/>
-      <c r="W172" s="8"/>
-      <c r="X172" s="8"/>
-      <c r="Y172" s="8"/>
-      <c r="Z172" s="8"/>
-      <c r="AA172" s="8"/>
-      <c r="AB172" s="9"/>
+      <c r="V172" s="2"/>
+      <c r="W172" s="2"/>
+      <c r="X172" s="2"/>
+      <c r="Y172" s="2"/>
+      <c r="Z172" s="2"/>
+      <c r="AA172" s="2"/>
+      <c r="AB172" s="8"/>
     </row>
     <row r="173" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
@@ -15602,7 +15602,7 @@
       <c r="U173" t="s">
         <v>32</v>
       </c>
-      <c r="AB173" s="10"/>
+      <c r="AB173" s="9"/>
     </row>
     <row r="174" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
@@ -15668,13 +15668,13 @@
       <c r="U174" t="s">
         <v>32</v>
       </c>
-      <c r="V174" s="8"/>
-      <c r="W174" s="8"/>
-      <c r="X174" s="8"/>
-      <c r="Y174" s="8"/>
-      <c r="Z174" s="8"/>
-      <c r="AA174" s="8"/>
-      <c r="AB174" s="9"/>
+      <c r="V174" s="2"/>
+      <c r="W174" s="2"/>
+      <c r="X174" s="2"/>
+      <c r="Y174" s="2"/>
+      <c r="Z174" s="2"/>
+      <c r="AA174" s="2"/>
+      <c r="AB174" s="8"/>
     </row>
     <row r="175" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
@@ -15747,7 +15747,7 @@
       <c r="Z175" s="4"/>
       <c r="AA175" s="4"/>
       <c r="AB175" s="5" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
     </row>
     <row r="176" spans="1:28" x14ac:dyDescent="0.2">
@@ -15814,13 +15814,13 @@
       <c r="U176" t="s">
         <v>32</v>
       </c>
-      <c r="V176" s="8"/>
-      <c r="W176" s="8"/>
-      <c r="X176" s="8"/>
-      <c r="Y176" s="8"/>
-      <c r="Z176" s="8"/>
-      <c r="AA176" s="8"/>
-      <c r="AB176" s="9"/>
+      <c r="V176" s="2"/>
+      <c r="W176" s="2"/>
+      <c r="X176" s="2"/>
+      <c r="Y176" s="2"/>
+      <c r="Z176" s="2"/>
+      <c r="AA176" s="2"/>
+      <c r="AB176" s="8"/>
     </row>
     <row r="177" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
@@ -15886,7 +15886,7 @@
       <c r="U177" t="s">
         <v>32</v>
       </c>
-      <c r="AB177" s="10"/>
+      <c r="AB177" s="9"/>
     </row>
     <row r="178" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
@@ -15961,7 +15961,7 @@
         <v>0</v>
       </c>
       <c r="AB178" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="179" spans="1:28" x14ac:dyDescent="0.2">
@@ -16028,7 +16028,7 @@
       <c r="U179" t="s">
         <v>32</v>
       </c>
-      <c r="AB179" s="10"/>
+      <c r="AB179" s="9"/>
     </row>
     <row r="180" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
@@ -16094,13 +16094,13 @@
       <c r="U180" t="s">
         <v>32</v>
       </c>
-      <c r="V180" s="8"/>
-      <c r="W180" s="8"/>
-      <c r="X180" s="8"/>
-      <c r="Y180" s="8"/>
-      <c r="Z180" s="8"/>
-      <c r="AA180" s="8"/>
-      <c r="AB180" s="9"/>
+      <c r="V180" s="2"/>
+      <c r="W180" s="2"/>
+      <c r="X180" s="2"/>
+      <c r="Y180" s="2"/>
+      <c r="Z180" s="2"/>
+      <c r="AA180" s="2"/>
+      <c r="AB180" s="8"/>
     </row>
     <row r="181" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
@@ -16166,7 +16166,7 @@
       <c r="U181" t="s">
         <v>32</v>
       </c>
-      <c r="AB181" s="10"/>
+      <c r="AB181" s="9"/>
     </row>
     <row r="182" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
@@ -16232,13 +16232,13 @@
       <c r="U182" t="s">
         <v>32</v>
       </c>
-      <c r="V182" s="8"/>
-      <c r="W182" s="8"/>
-      <c r="X182" s="8"/>
-      <c r="Y182" s="8"/>
-      <c r="Z182" s="8"/>
-      <c r="AA182" s="8"/>
-      <c r="AB182" s="9"/>
+      <c r="V182" s="2"/>
+      <c r="W182" s="2"/>
+      <c r="X182" s="2"/>
+      <c r="Y182" s="2"/>
+      <c r="Z182" s="2"/>
+      <c r="AA182" s="2"/>
+      <c r="AB182" s="8"/>
     </row>
     <row r="183" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
@@ -16311,7 +16311,7 @@
       <c r="Z183" s="4"/>
       <c r="AA183" s="4"/>
       <c r="AB183" s="5" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
     </row>
     <row r="184" spans="1:28" x14ac:dyDescent="0.2">
@@ -16387,7 +16387,7 @@
       <c r="Z184" s="4"/>
       <c r="AA184" s="4"/>
       <c r="AB184" s="5" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
     </row>
     <row r="185" spans="1:28" x14ac:dyDescent="0.2">
@@ -16454,7 +16454,7 @@
       <c r="U185" t="s">
         <v>32</v>
       </c>
-      <c r="AB185" s="10"/>
+      <c r="AB185" s="9"/>
     </row>
     <row r="186" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
@@ -16531,7 +16531,7 @@
         <v>0</v>
       </c>
       <c r="AB186" s="7" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
     </row>
     <row r="187" spans="1:28" x14ac:dyDescent="0.2">
@@ -16598,7 +16598,7 @@
       <c r="U187" t="s">
         <v>32</v>
       </c>
-      <c r="AB187" s="10"/>
+      <c r="AB187" s="9"/>
     </row>
     <row r="188" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
@@ -16664,13 +16664,13 @@
       <c r="U188" t="s">
         <v>32</v>
       </c>
-      <c r="V188" s="8"/>
-      <c r="W188" s="8"/>
-      <c r="X188" s="8"/>
-      <c r="Y188" s="8"/>
-      <c r="Z188" s="8"/>
-      <c r="AA188" s="8"/>
-      <c r="AB188" s="9"/>
+      <c r="V188" s="2"/>
+      <c r="W188" s="2"/>
+      <c r="X188" s="2"/>
+      <c r="Y188" s="2"/>
+      <c r="Z188" s="2"/>
+      <c r="AA188" s="2"/>
+      <c r="AB188" s="8"/>
     </row>
     <row r="189" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
@@ -16745,7 +16745,7 @@
         <v>0</v>
       </c>
       <c r="AB189" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="190" spans="1:28" x14ac:dyDescent="0.2">
@@ -16821,7 +16821,7 @@
         <v>0</v>
       </c>
       <c r="AB190" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="191" spans="1:28" x14ac:dyDescent="0.2">
@@ -16888,7 +16888,7 @@
       <c r="U191" t="s">
         <v>32</v>
       </c>
-      <c r="AB191" s="10"/>
+      <c r="AB191" s="9"/>
     </row>
     <row r="192" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
@@ -16963,7 +16963,7 @@
       <c r="Z192" s="4"/>
       <c r="AA192" s="4"/>
       <c r="AB192" s="5" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
     </row>
     <row r="193" spans="1:28" x14ac:dyDescent="0.2">
@@ -17041,7 +17041,7 @@
         <v>0</v>
       </c>
       <c r="AB193" s="7" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
     </row>
     <row r="194" spans="1:28" x14ac:dyDescent="0.2">
@@ -17119,7 +17119,7 @@
         <v>0</v>
       </c>
       <c r="AB194" s="7" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
     </row>
     <row r="195" spans="1:28" x14ac:dyDescent="0.2">
@@ -17186,7 +17186,7 @@
       <c r="U195" t="s">
         <v>32</v>
       </c>
-      <c r="AB195" s="10"/>
+      <c r="AB195" s="9"/>
     </row>
     <row r="196" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
@@ -17252,13 +17252,13 @@
       <c r="U196" t="s">
         <v>32</v>
       </c>
-      <c r="V196" s="8"/>
-      <c r="W196" s="8"/>
-      <c r="X196" s="8"/>
-      <c r="Y196" s="8"/>
-      <c r="Z196" s="8"/>
-      <c r="AA196" s="8"/>
-      <c r="AB196" s="9"/>
+      <c r="V196" s="2"/>
+      <c r="W196" s="2"/>
+      <c r="X196" s="2"/>
+      <c r="Y196" s="2"/>
+      <c r="Z196" s="2"/>
+      <c r="AA196" s="2"/>
+      <c r="AB196" s="8"/>
     </row>
     <row r="197" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
@@ -17324,7 +17324,7 @@
       <c r="U197" t="s">
         <v>32</v>
       </c>
-      <c r="AB197" s="10"/>
+      <c r="AB197" s="9"/>
     </row>
     <row r="198" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
@@ -17390,13 +17390,13 @@
       <c r="U198" t="s">
         <v>32</v>
       </c>
-      <c r="V198" s="8"/>
-      <c r="W198" s="8"/>
-      <c r="X198" s="8"/>
-      <c r="Y198" s="8"/>
-      <c r="Z198" s="8"/>
-      <c r="AA198" s="8"/>
-      <c r="AB198" s="9"/>
+      <c r="V198" s="2"/>
+      <c r="W198" s="2"/>
+      <c r="X198" s="2"/>
+      <c r="Y198" s="2"/>
+      <c r="Z198" s="2"/>
+      <c r="AA198" s="2"/>
+      <c r="AB198" s="8"/>
     </row>
     <row r="199" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
@@ -17462,7 +17462,7 @@
       <c r="U199" t="s">
         <v>32</v>
       </c>
-      <c r="AB199" s="10"/>
+      <c r="AB199" s="9"/>
     </row>
     <row r="200" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
@@ -17528,13 +17528,13 @@
       <c r="U200" t="s">
         <v>32</v>
       </c>
-      <c r="V200" s="8"/>
-      <c r="W200" s="8"/>
-      <c r="X200" s="8"/>
-      <c r="Y200" s="8"/>
-      <c r="Z200" s="8"/>
-      <c r="AA200" s="8"/>
-      <c r="AB200" s="9"/>
+      <c r="V200" s="2"/>
+      <c r="W200" s="2"/>
+      <c r="X200" s="2"/>
+      <c r="Y200" s="2"/>
+      <c r="Z200" s="2"/>
+      <c r="AA200" s="2"/>
+      <c r="AB200" s="8"/>
     </row>
     <row r="201" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
@@ -17600,7 +17600,7 @@
       <c r="U201" t="s">
         <v>32</v>
       </c>
-      <c r="AB201" s="10"/>
+      <c r="AB201" s="9"/>
     </row>
     <row r="202" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
@@ -17673,7 +17673,7 @@
       <c r="Z202" s="4"/>
       <c r="AA202" s="4"/>
       <c r="AB202" s="5" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
     </row>
     <row r="203" spans="1:28" x14ac:dyDescent="0.2">
@@ -17740,7 +17740,7 @@
       <c r="U203" t="s">
         <v>32</v>
       </c>
-      <c r="AB203" s="10"/>
+      <c r="AB203" s="9"/>
     </row>
     <row r="204" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
@@ -17806,13 +17806,13 @@
       <c r="U204" t="s">
         <v>32</v>
       </c>
-      <c r="V204" s="8"/>
-      <c r="W204" s="8"/>
-      <c r="X204" s="8"/>
-      <c r="Y204" s="8"/>
-      <c r="Z204" s="8"/>
-      <c r="AA204" s="8"/>
-      <c r="AB204" s="9"/>
+      <c r="V204" s="2"/>
+      <c r="W204" s="2"/>
+      <c r="X204" s="2"/>
+      <c r="Y204" s="2"/>
+      <c r="Z204" s="2"/>
+      <c r="AA204" s="2"/>
+      <c r="AB204" s="8"/>
     </row>
     <row r="205" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
@@ -17885,7 +17885,7 @@
       <c r="Z205" s="4"/>
       <c r="AA205" s="4"/>
       <c r="AB205" s="5" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
     </row>
     <row r="206" spans="1:28" x14ac:dyDescent="0.2">
@@ -17952,13 +17952,13 @@
       <c r="U206" t="s">
         <v>32</v>
       </c>
-      <c r="V206" s="8"/>
-      <c r="W206" s="8"/>
-      <c r="X206" s="8"/>
-      <c r="Y206" s="8"/>
-      <c r="Z206" s="8"/>
-      <c r="AA206" s="8"/>
-      <c r="AB206" s="9"/>
+      <c r="V206" s="2"/>
+      <c r="W206" s="2"/>
+      <c r="X206" s="2"/>
+      <c r="Y206" s="2"/>
+      <c r="Z206" s="2"/>
+      <c r="AA206" s="2"/>
+      <c r="AB206" s="8"/>
     </row>
     <row r="207" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
@@ -18024,7 +18024,7 @@
       <c r="U207" t="s">
         <v>32</v>
       </c>
-      <c r="AB207" s="10"/>
+      <c r="AB207" s="9"/>
     </row>
     <row r="208" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
@@ -18090,13 +18090,13 @@
       <c r="U208" t="s">
         <v>32</v>
       </c>
-      <c r="V208" s="8"/>
-      <c r="W208" s="8"/>
-      <c r="X208" s="8"/>
-      <c r="Y208" s="8"/>
-      <c r="Z208" s="8"/>
-      <c r="AA208" s="8"/>
-      <c r="AB208" s="9"/>
+      <c r="V208" s="2"/>
+      <c r="W208" s="2"/>
+      <c r="X208" s="2"/>
+      <c r="Y208" s="2"/>
+      <c r="Z208" s="2"/>
+      <c r="AA208" s="2"/>
+      <c r="AB208" s="8"/>
     </row>
     <row r="209" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
@@ -18162,7 +18162,7 @@
       <c r="U209" t="s">
         <v>32</v>
       </c>
-      <c r="AB209" s="10"/>
+      <c r="AB209" s="9"/>
     </row>
     <row r="210" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
@@ -18237,7 +18237,7 @@
         <v>0</v>
       </c>
       <c r="AB210" s="7" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
     </row>
     <row r="211" spans="1:28" x14ac:dyDescent="0.2">
@@ -18304,7 +18304,7 @@
       <c r="U211" t="s">
         <v>32</v>
       </c>
-      <c r="AB211" s="10"/>
+      <c r="AB211" s="9"/>
     </row>
     <row r="212" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
@@ -18377,7 +18377,7 @@
       <c r="Z212" s="4"/>
       <c r="AA212" s="4"/>
       <c r="AB212" s="5" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
     </row>
     <row r="213" spans="1:28" x14ac:dyDescent="0.2">
@@ -18444,7 +18444,7 @@
       <c r="U213" t="s">
         <v>32</v>
       </c>
-      <c r="AB213" s="10"/>
+      <c r="AB213" s="9"/>
     </row>
     <row r="214" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
@@ -18510,13 +18510,13 @@
       <c r="U214" t="s">
         <v>32</v>
       </c>
-      <c r="V214" s="8"/>
-      <c r="W214" s="8"/>
-      <c r="X214" s="8"/>
-      <c r="Y214" s="8"/>
-      <c r="Z214" s="8"/>
-      <c r="AA214" s="8"/>
-      <c r="AB214" s="9"/>
+      <c r="V214" s="2"/>
+      <c r="W214" s="2"/>
+      <c r="X214" s="2"/>
+      <c r="Y214" s="2"/>
+      <c r="Z214" s="2"/>
+      <c r="AA214" s="2"/>
+      <c r="AB214" s="8"/>
     </row>
     <row r="215" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
@@ -18589,7 +18589,7 @@
       <c r="Z215" s="4"/>
       <c r="AA215" s="4"/>
       <c r="AB215" s="5" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
     </row>
     <row r="216" spans="1:28" x14ac:dyDescent="0.2">
@@ -18656,13 +18656,13 @@
       <c r="U216" t="s">
         <v>32</v>
       </c>
-      <c r="V216" s="8"/>
-      <c r="W216" s="8"/>
-      <c r="X216" s="8"/>
-      <c r="Y216" s="8"/>
-      <c r="Z216" s="8"/>
-      <c r="AA216" s="8"/>
-      <c r="AB216" s="9"/>
+      <c r="V216" s="2"/>
+      <c r="W216" s="2"/>
+      <c r="X216" s="2"/>
+      <c r="Y216" s="2"/>
+      <c r="Z216" s="2"/>
+      <c r="AA216" s="2"/>
+      <c r="AB216" s="8"/>
     </row>
     <row r="217" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
@@ -18728,7 +18728,7 @@
       <c r="U217" t="s">
         <v>32</v>
       </c>
-      <c r="AB217" s="10"/>
+      <c r="AB217" s="9"/>
     </row>
     <row r="218" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
@@ -18803,7 +18803,7 @@
         <v>0</v>
       </c>
       <c r="AB218" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="219" spans="1:28" x14ac:dyDescent="0.2">
@@ -18870,7 +18870,7 @@
       <c r="U219" t="s">
         <v>32</v>
       </c>
-      <c r="AB219" s="10"/>
+      <c r="AB219" s="9"/>
     </row>
     <row r="220" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
@@ -18936,13 +18936,13 @@
       <c r="U220" t="s">
         <v>32</v>
       </c>
-      <c r="V220" s="8"/>
-      <c r="W220" s="8"/>
-      <c r="X220" s="8"/>
-      <c r="Y220" s="8"/>
-      <c r="Z220" s="8"/>
-      <c r="AA220" s="8"/>
-      <c r="AB220" s="9"/>
+      <c r="V220" s="2"/>
+      <c r="W220" s="2"/>
+      <c r="X220" s="2"/>
+      <c r="Y220" s="2"/>
+      <c r="Z220" s="2"/>
+      <c r="AA220" s="2"/>
+      <c r="AB220" s="8"/>
     </row>
     <row r="221" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
@@ -19017,7 +19017,7 @@
         <v>0</v>
       </c>
       <c r="AB221" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="222" spans="1:28" x14ac:dyDescent="0.2">
@@ -19084,13 +19084,13 @@
       <c r="U222" t="s">
         <v>32</v>
       </c>
-      <c r="V222" s="8"/>
-      <c r="W222" s="8"/>
-      <c r="X222" s="8"/>
-      <c r="Y222" s="8"/>
-      <c r="Z222" s="8"/>
-      <c r="AA222" s="8"/>
-      <c r="AB222" s="9"/>
+      <c r="V222" s="2"/>
+      <c r="W222" s="2"/>
+      <c r="X222" s="2"/>
+      <c r="Y222" s="2"/>
+      <c r="Z222" s="2"/>
+      <c r="AA222" s="2"/>
+      <c r="AB222" s="8"/>
     </row>
     <row r="223" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
@@ -19156,7 +19156,7 @@
       <c r="U223" t="s">
         <v>32</v>
       </c>
-      <c r="AB223" s="10"/>
+      <c r="AB223" s="9"/>
     </row>
     <row r="224" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
@@ -19222,13 +19222,13 @@
       <c r="U224" t="s">
         <v>32</v>
       </c>
-      <c r="V224" s="8"/>
-      <c r="W224" s="8"/>
-      <c r="X224" s="8"/>
-      <c r="Y224" s="8"/>
-      <c r="Z224" s="8"/>
-      <c r="AA224" s="8"/>
-      <c r="AB224" s="9"/>
+      <c r="V224" s="2"/>
+      <c r="W224" s="2"/>
+      <c r="X224" s="2"/>
+      <c r="Y224" s="2"/>
+      <c r="Z224" s="2"/>
+      <c r="AA224" s="2"/>
+      <c r="AB224" s="8"/>
     </row>
     <row r="225" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
@@ -19303,7 +19303,7 @@
         <v>0</v>
       </c>
       <c r="AB225" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="226" spans="1:28" x14ac:dyDescent="0.2">
@@ -19370,13 +19370,13 @@
       <c r="U226" t="s">
         <v>32</v>
       </c>
-      <c r="V226" s="8"/>
-      <c r="W226" s="8"/>
-      <c r="X226" s="8"/>
-      <c r="Y226" s="8"/>
-      <c r="Z226" s="8"/>
-      <c r="AA226" s="8"/>
-      <c r="AB226" s="9"/>
+      <c r="V226" s="2"/>
+      <c r="W226" s="2"/>
+      <c r="X226" s="2"/>
+      <c r="Y226" s="2"/>
+      <c r="Z226" s="2"/>
+      <c r="AA226" s="2"/>
+      <c r="AB226" s="8"/>
     </row>
     <row r="227" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
@@ -19442,7 +19442,7 @@
       <c r="U227" t="s">
         <v>32</v>
       </c>
-      <c r="AB227" s="10"/>
+      <c r="AB227" s="9"/>
     </row>
     <row r="228" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
@@ -19508,13 +19508,13 @@
       <c r="U228" t="s">
         <v>32</v>
       </c>
-      <c r="V228" s="8"/>
-      <c r="W228" s="8"/>
-      <c r="X228" s="8"/>
-      <c r="Y228" s="8"/>
-      <c r="Z228" s="8"/>
-      <c r="AA228" s="8"/>
-      <c r="AB228" s="9"/>
+      <c r="V228" s="2"/>
+      <c r="W228" s="2"/>
+      <c r="X228" s="2"/>
+      <c r="Y228" s="2"/>
+      <c r="Z228" s="2"/>
+      <c r="AA228" s="2"/>
+      <c r="AB228" s="8"/>
     </row>
     <row r="229" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
@@ -19580,7 +19580,7 @@
       <c r="U229" t="s">
         <v>32</v>
       </c>
-      <c r="AB229" s="10"/>
+      <c r="AB229" s="9"/>
     </row>
     <row r="230" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
@@ -19646,13 +19646,13 @@
       <c r="U230" t="s">
         <v>32</v>
       </c>
-      <c r="V230" s="8"/>
-      <c r="W230" s="8"/>
-      <c r="X230" s="8"/>
-      <c r="Y230" s="8"/>
-      <c r="Z230" s="8"/>
-      <c r="AA230" s="8"/>
-      <c r="AB230" s="9"/>
+      <c r="V230" s="2"/>
+      <c r="W230" s="2"/>
+      <c r="X230" s="2"/>
+      <c r="Y230" s="2"/>
+      <c r="Z230" s="2"/>
+      <c r="AA230" s="2"/>
+      <c r="AB230" s="8"/>
     </row>
     <row r="231" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
@@ -19718,7 +19718,7 @@
       <c r="U231" t="s">
         <v>32</v>
       </c>
-      <c r="AB231" s="10"/>
+      <c r="AB231" s="9"/>
     </row>
     <row r="232" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
@@ -19793,7 +19793,7 @@
       <c r="Z232" s="4"/>
       <c r="AA232" s="4"/>
       <c r="AB232" s="5" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
     </row>
     <row r="233" spans="1:28" x14ac:dyDescent="0.2">
@@ -19860,7 +19860,7 @@
       <c r="U233" t="s">
         <v>32</v>
       </c>
-      <c r="AB233" s="10"/>
+      <c r="AB233" s="9"/>
     </row>
     <row r="234" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
@@ -19926,13 +19926,13 @@
       <c r="U234" t="s">
         <v>32</v>
       </c>
-      <c r="V234" s="8"/>
-      <c r="W234" s="8"/>
-      <c r="X234" s="8"/>
-      <c r="Y234" s="8"/>
-      <c r="Z234" s="8"/>
-      <c r="AA234" s="8"/>
-      <c r="AB234" s="9"/>
+      <c r="V234" s="2"/>
+      <c r="W234" s="2"/>
+      <c r="X234" s="2"/>
+      <c r="Y234" s="2"/>
+      <c r="Z234" s="2"/>
+      <c r="AA234" s="2"/>
+      <c r="AB234" s="8"/>
     </row>
     <row r="235" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
@@ -20009,7 +20009,7 @@
       </c>
       <c r="AA235" s="4"/>
       <c r="AB235" s="5" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
     </row>
     <row r="236" spans="1:28" x14ac:dyDescent="0.2">
@@ -20076,13 +20076,13 @@
       <c r="U236" t="s">
         <v>32</v>
       </c>
-      <c r="V236" s="8"/>
-      <c r="W236" s="8"/>
-      <c r="X236" s="8"/>
-      <c r="Y236" s="8"/>
-      <c r="Z236" s="8"/>
-      <c r="AA236" s="8"/>
-      <c r="AB236" s="9"/>
+      <c r="V236" s="2"/>
+      <c r="W236" s="2"/>
+      <c r="X236" s="2"/>
+      <c r="Y236" s="2"/>
+      <c r="Z236" s="2"/>
+      <c r="AA236" s="2"/>
+      <c r="AB236" s="8"/>
     </row>
     <row r="237" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
@@ -20148,7 +20148,7 @@
       <c r="U237" t="s">
         <v>32</v>
       </c>
-      <c r="AB237" s="10"/>
+      <c r="AB237" s="9"/>
     </row>
     <row r="238" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
@@ -20214,13 +20214,13 @@
       <c r="U238" t="s">
         <v>32</v>
       </c>
-      <c r="V238" s="8"/>
-      <c r="W238" s="8"/>
-      <c r="X238" s="8"/>
-      <c r="Y238" s="8"/>
-      <c r="Z238" s="8"/>
-      <c r="AA238" s="8"/>
-      <c r="AB238" s="9"/>
+      <c r="V238" s="2"/>
+      <c r="W238" s="2"/>
+      <c r="X238" s="2"/>
+      <c r="Y238" s="2"/>
+      <c r="Z238" s="2"/>
+      <c r="AA238" s="2"/>
+      <c r="AB238" s="8"/>
     </row>
     <row r="239" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
@@ -20286,7 +20286,7 @@
       <c r="U239" t="s">
         <v>32</v>
       </c>
-      <c r="AB239" s="10"/>
+      <c r="AB239" s="9"/>
     </row>
     <row r="240" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
@@ -20352,13 +20352,13 @@
       <c r="U240" t="s">
         <v>32</v>
       </c>
-      <c r="V240" s="8"/>
-      <c r="W240" s="8"/>
-      <c r="X240" s="8"/>
-      <c r="Y240" s="8"/>
-      <c r="Z240" s="8"/>
-      <c r="AA240" s="8"/>
-      <c r="AB240" s="9"/>
+      <c r="V240" s="2"/>
+      <c r="W240" s="2"/>
+      <c r="X240" s="2"/>
+      <c r="Y240" s="2"/>
+      <c r="Z240" s="2"/>
+      <c r="AA240" s="2"/>
+      <c r="AB240" s="8"/>
     </row>
     <row r="241" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
@@ -20424,7 +20424,7 @@
       <c r="U241" t="s">
         <v>32</v>
       </c>
-      <c r="AB241" s="10"/>
+      <c r="AB241" s="9"/>
     </row>
     <row r="242" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
@@ -20497,7 +20497,7 @@
       <c r="Z242" s="4"/>
       <c r="AA242" s="4"/>
       <c r="AB242" s="5" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
     </row>
     <row r="243" spans="1:28" x14ac:dyDescent="0.2">
@@ -20564,7 +20564,7 @@
       <c r="U243" t="s">
         <v>32</v>
       </c>
-      <c r="AB243" s="10"/>
+      <c r="AB243" s="9"/>
     </row>
     <row r="244" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
@@ -20630,13 +20630,13 @@
       <c r="U244" t="s">
         <v>32</v>
       </c>
-      <c r="V244" s="8"/>
-      <c r="W244" s="8"/>
-      <c r="X244" s="8"/>
-      <c r="Y244" s="8"/>
-      <c r="Z244" s="8"/>
-      <c r="AA244" s="8"/>
-      <c r="AB244" s="9"/>
+      <c r="V244" s="2"/>
+      <c r="W244" s="2"/>
+      <c r="X244" s="2"/>
+      <c r="Y244" s="2"/>
+      <c r="Z244" s="2"/>
+      <c r="AA244" s="2"/>
+      <c r="AB244" s="8"/>
     </row>
     <row r="245" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
@@ -20702,7 +20702,7 @@
       <c r="U245" t="s">
         <v>32</v>
       </c>
-      <c r="AB245" s="10"/>
+      <c r="AB245" s="9"/>
     </row>
     <row r="246" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
@@ -20768,13 +20768,13 @@
       <c r="U246" t="s">
         <v>32</v>
       </c>
-      <c r="V246" s="8"/>
-      <c r="W246" s="8"/>
-      <c r="X246" s="8"/>
-      <c r="Y246" s="8"/>
-      <c r="Z246" s="8"/>
-      <c r="AA246" s="8"/>
-      <c r="AB246" s="9"/>
+      <c r="V246" s="2"/>
+      <c r="W246" s="2"/>
+      <c r="X246" s="2"/>
+      <c r="Y246" s="2"/>
+      <c r="Z246" s="2"/>
+      <c r="AA246" s="2"/>
+      <c r="AB246" s="8"/>
     </row>
     <row r="247" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
@@ -20840,7 +20840,7 @@
       <c r="U247" t="s">
         <v>32</v>
       </c>
-      <c r="AB247" s="10"/>
+      <c r="AB247" s="9"/>
     </row>
     <row r="248" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
@@ -20906,13 +20906,13 @@
       <c r="U248" t="s">
         <v>32</v>
       </c>
-      <c r="V248" s="8"/>
-      <c r="W248" s="8"/>
-      <c r="X248" s="8"/>
-      <c r="Y248" s="8"/>
-      <c r="Z248" s="8"/>
-      <c r="AA248" s="8"/>
-      <c r="AB248" s="9"/>
+      <c r="V248" s="2"/>
+      <c r="W248" s="2"/>
+      <c r="X248" s="2"/>
+      <c r="Y248" s="2"/>
+      <c r="Z248" s="2"/>
+      <c r="AA248" s="2"/>
+      <c r="AB248" s="8"/>
     </row>
     <row r="249" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
@@ -20978,7 +20978,7 @@
       <c r="U249" t="s">
         <v>32</v>
       </c>
-      <c r="AB249" s="10"/>
+      <c r="AB249" s="9"/>
     </row>
     <row r="250" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
@@ -21044,13 +21044,13 @@
       <c r="U250" t="s">
         <v>32</v>
       </c>
-      <c r="V250" s="8"/>
-      <c r="W250" s="8"/>
-      <c r="X250" s="8"/>
-      <c r="Y250" s="8"/>
-      <c r="Z250" s="8"/>
-      <c r="AA250" s="8"/>
-      <c r="AB250" s="9"/>
+      <c r="V250" s="2"/>
+      <c r="W250" s="2"/>
+      <c r="X250" s="2"/>
+      <c r="Y250" s="2"/>
+      <c r="Z250" s="2"/>
+      <c r="AA250" s="2"/>
+      <c r="AB250" s="8"/>
     </row>
     <row r="251" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
@@ -21116,7 +21116,7 @@
       <c r="U251" t="s">
         <v>32</v>
       </c>
-      <c r="AB251" s="10"/>
+      <c r="AB251" s="9"/>
     </row>
     <row r="252" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
@@ -21182,13 +21182,13 @@
       <c r="U252" t="s">
         <v>32</v>
       </c>
-      <c r="V252" s="8"/>
-      <c r="W252" s="8"/>
-      <c r="X252" s="8"/>
-      <c r="Y252" s="8"/>
-      <c r="Z252" s="8"/>
-      <c r="AA252" s="8"/>
-      <c r="AB252" s="9"/>
+      <c r="V252" s="2"/>
+      <c r="W252" s="2"/>
+      <c r="X252" s="2"/>
+      <c r="Y252" s="2"/>
+      <c r="Z252" s="2"/>
+      <c r="AA252" s="2"/>
+      <c r="AB252" s="8"/>
     </row>
     <row r="253" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
@@ -21259,11 +21259,11 @@
       <c r="X253" s="6"/>
       <c r="Y253" s="6"/>
       <c r="Z253" s="6"/>
-      <c r="AA253" s="11" t="b">
+      <c r="AA253" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AB253" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="254" spans="1:28" x14ac:dyDescent="0.2">
@@ -21330,13 +21330,13 @@
       <c r="U254" t="s">
         <v>32</v>
       </c>
-      <c r="V254" s="8"/>
-      <c r="W254" s="8"/>
-      <c r="X254" s="8"/>
-      <c r="Y254" s="8"/>
-      <c r="Z254" s="8"/>
-      <c r="AA254" s="8"/>
-      <c r="AB254" s="9"/>
+      <c r="V254" s="2"/>
+      <c r="W254" s="2"/>
+      <c r="X254" s="2"/>
+      <c r="Y254" s="2"/>
+      <c r="Z254" s="2"/>
+      <c r="AA254" s="2"/>
+      <c r="AB254" s="8"/>
     </row>
     <row r="255" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
@@ -21409,7 +21409,7 @@
       <c r="Z255" s="4"/>
       <c r="AA255" s="4"/>
       <c r="AB255" s="5" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
     </row>
     <row r="256" spans="1:28" x14ac:dyDescent="0.2">
@@ -21476,13 +21476,13 @@
       <c r="U256" t="s">
         <v>32</v>
       </c>
-      <c r="V256" s="8"/>
-      <c r="W256" s="8"/>
-      <c r="X256" s="8"/>
-      <c r="Y256" s="8"/>
-      <c r="Z256" s="8"/>
-      <c r="AA256" s="8"/>
-      <c r="AB256" s="9"/>
+      <c r="V256" s="2"/>
+      <c r="W256" s="2"/>
+      <c r="X256" s="2"/>
+      <c r="Y256" s="2"/>
+      <c r="Z256" s="2"/>
+      <c r="AA256" s="2"/>
+      <c r="AB256" s="8"/>
     </row>
     <row r="257" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
@@ -21548,7 +21548,7 @@
       <c r="U257" t="s">
         <v>32</v>
       </c>
-      <c r="AB257" s="10"/>
+      <c r="AB257" s="9"/>
     </row>
     <row r="258" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
@@ -21614,13 +21614,13 @@
       <c r="U258" t="s">
         <v>32</v>
       </c>
-      <c r="V258" s="8"/>
-      <c r="W258" s="8"/>
-      <c r="X258" s="8"/>
-      <c r="Y258" s="8"/>
-      <c r="Z258" s="8"/>
-      <c r="AA258" s="8"/>
-      <c r="AB258" s="9"/>
+      <c r="V258" s="2"/>
+      <c r="W258" s="2"/>
+      <c r="X258" s="2"/>
+      <c r="Y258" s="2"/>
+      <c r="Z258" s="2"/>
+      <c r="AA258" s="2"/>
+      <c r="AB258" s="8"/>
     </row>
     <row r="259" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
@@ -21691,11 +21691,11 @@
       <c r="X259" s="6"/>
       <c r="Y259" s="6"/>
       <c r="Z259" s="6"/>
-      <c r="AA259" s="11" t="b">
+      <c r="AA259" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AB259" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="260" spans="1:28" x14ac:dyDescent="0.2">
@@ -21769,11 +21769,11 @@
       </c>
       <c r="Y260" s="6"/>
       <c r="Z260" s="6"/>
-      <c r="AA260" s="11" t="b">
+      <c r="AA260" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AB260" s="7" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
     </row>
     <row r="261" spans="1:28" x14ac:dyDescent="0.2">
@@ -21840,7 +21840,7 @@
       <c r="U261" t="s">
         <v>32</v>
       </c>
-      <c r="AB261" s="10"/>
+      <c r="AB261" s="9"/>
     </row>
     <row r="262" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
@@ -21911,11 +21911,11 @@
       <c r="X262" s="6"/>
       <c r="Y262" s="6"/>
       <c r="Z262" s="6"/>
-      <c r="AA262" s="11" t="b">
+      <c r="AA262" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AB262" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="263" spans="1:28" x14ac:dyDescent="0.2">
@@ -21987,11 +21987,11 @@
       <c r="X263" s="6"/>
       <c r="Y263" s="6"/>
       <c r="Z263" s="6"/>
-      <c r="AA263" s="11" t="b">
+      <c r="AA263" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AB263" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="264" spans="1:28" x14ac:dyDescent="0.2">
@@ -22058,13 +22058,13 @@
       <c r="U264" t="s">
         <v>32</v>
       </c>
-      <c r="V264" s="8"/>
-      <c r="W264" s="8"/>
-      <c r="X264" s="8"/>
-      <c r="Y264" s="8"/>
-      <c r="Z264" s="8"/>
-      <c r="AA264" s="8"/>
-      <c r="AB264" s="9"/>
+      <c r="V264" s="2"/>
+      <c r="W264" s="2"/>
+      <c r="X264" s="2"/>
+      <c r="Y264" s="2"/>
+      <c r="Z264" s="2"/>
+      <c r="AA264" s="2"/>
+      <c r="AB264" s="8"/>
     </row>
     <row r="265" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
@@ -22130,7 +22130,7 @@
       <c r="U265" t="s">
         <v>32</v>
       </c>
-      <c r="AB265" s="10"/>
+      <c r="AB265" s="9"/>
     </row>
     <row r="266" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
@@ -22196,13 +22196,13 @@
       <c r="U266" t="s">
         <v>32</v>
       </c>
-      <c r="V266" s="8"/>
-      <c r="W266" s="8"/>
-      <c r="X266" s="8"/>
-      <c r="Y266" s="8"/>
-      <c r="Z266" s="8"/>
-      <c r="AA266" s="8"/>
-      <c r="AB266" s="9"/>
+      <c r="V266" s="2"/>
+      <c r="W266" s="2"/>
+      <c r="X266" s="2"/>
+      <c r="Y266" s="2"/>
+      <c r="Z266" s="2"/>
+      <c r="AA266" s="2"/>
+      <c r="AB266" s="8"/>
     </row>
     <row r="267" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
@@ -22275,7 +22275,7 @@
       <c r="Z267" s="4"/>
       <c r="AA267" s="4"/>
       <c r="AB267" s="5" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
     </row>
     <row r="268" spans="1:28" x14ac:dyDescent="0.2">
@@ -22342,13 +22342,13 @@
       <c r="U268" t="s">
         <v>32</v>
       </c>
-      <c r="V268" s="8"/>
-      <c r="W268" s="8"/>
-      <c r="X268" s="8"/>
-      <c r="Y268" s="8"/>
-      <c r="Z268" s="8"/>
-      <c r="AA268" s="8"/>
-      <c r="AB268" s="9"/>
+      <c r="V268" s="2"/>
+      <c r="W268" s="2"/>
+      <c r="X268" s="2"/>
+      <c r="Y268" s="2"/>
+      <c r="Z268" s="2"/>
+      <c r="AA268" s="2"/>
+      <c r="AB268" s="8"/>
     </row>
     <row r="269" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
@@ -22414,7 +22414,7 @@
       <c r="U269" t="s">
         <v>32</v>
       </c>
-      <c r="AB269" s="10"/>
+      <c r="AB269" s="9"/>
     </row>
     <row r="270" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
@@ -22480,13 +22480,13 @@
       <c r="U270" t="s">
         <v>32</v>
       </c>
-      <c r="V270" s="8"/>
-      <c r="W270" s="8"/>
-      <c r="X270" s="8"/>
-      <c r="Y270" s="8"/>
-      <c r="Z270" s="8"/>
-      <c r="AA270" s="8"/>
-      <c r="AB270" s="9"/>
+      <c r="V270" s="2"/>
+      <c r="W270" s="2"/>
+      <c r="X270" s="2"/>
+      <c r="Y270" s="2"/>
+      <c r="Z270" s="2"/>
+      <c r="AA270" s="2"/>
+      <c r="AB270" s="8"/>
     </row>
     <row r="271" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
@@ -22552,7 +22552,7 @@
       <c r="U271" t="s">
         <v>32</v>
       </c>
-      <c r="AB271" s="10"/>
+      <c r="AB271" s="9"/>
     </row>
     <row r="272" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
@@ -22618,13 +22618,13 @@
       <c r="U272" t="s">
         <v>32</v>
       </c>
-      <c r="V272" s="8"/>
-      <c r="W272" s="8"/>
-      <c r="X272" s="8"/>
-      <c r="Y272" s="8"/>
-      <c r="Z272" s="8"/>
-      <c r="AA272" s="8"/>
-      <c r="AB272" s="9"/>
+      <c r="V272" s="2"/>
+      <c r="W272" s="2"/>
+      <c r="X272" s="2"/>
+      <c r="Y272" s="2"/>
+      <c r="Z272" s="2"/>
+      <c r="AA272" s="2"/>
+      <c r="AB272" s="8"/>
     </row>
     <row r="273" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
@@ -22690,7 +22690,7 @@
       <c r="U273" t="s">
         <v>32</v>
       </c>
-      <c r="AB273" s="10"/>
+      <c r="AB273" s="9"/>
     </row>
     <row r="274" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
@@ -22756,13 +22756,13 @@
       <c r="U274" t="s">
         <v>32</v>
       </c>
-      <c r="V274" s="8"/>
-      <c r="W274" s="8"/>
-      <c r="X274" s="8"/>
-      <c r="Y274" s="8"/>
-      <c r="Z274" s="8"/>
-      <c r="AA274" s="8"/>
-      <c r="AB274" s="9"/>
+      <c r="V274" s="2"/>
+      <c r="W274" s="2"/>
+      <c r="X274" s="2"/>
+      <c r="Y274" s="2"/>
+      <c r="Z274" s="2"/>
+      <c r="AA274" s="2"/>
+      <c r="AB274" s="8"/>
     </row>
     <row r="275" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
@@ -22828,7 +22828,7 @@
       <c r="U275" t="s">
         <v>32</v>
       </c>
-      <c r="AB275" s="10"/>
+      <c r="AB275" s="9"/>
     </row>
     <row r="276" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
@@ -22894,13 +22894,13 @@
       <c r="U276" t="s">
         <v>32</v>
       </c>
-      <c r="V276" s="8"/>
-      <c r="W276" s="8"/>
-      <c r="X276" s="8"/>
-      <c r="Y276" s="8"/>
-      <c r="Z276" s="8"/>
-      <c r="AA276" s="8"/>
-      <c r="AB276" s="9"/>
+      <c r="V276" s="2"/>
+      <c r="W276" s="2"/>
+      <c r="X276" s="2"/>
+      <c r="Y276" s="2"/>
+      <c r="Z276" s="2"/>
+      <c r="AA276" s="2"/>
+      <c r="AB276" s="8"/>
     </row>
     <row r="277" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
@@ -22966,7 +22966,7 @@
       <c r="U277" t="s">
         <v>32</v>
       </c>
-      <c r="AB277" s="10"/>
+      <c r="AB277" s="9"/>
     </row>
     <row r="278" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
@@ -23037,11 +23037,11 @@
       <c r="X278" s="6"/>
       <c r="Y278" s="6"/>
       <c r="Z278" s="6"/>
-      <c r="AA278" s="11" t="b">
+      <c r="AA278" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AB278" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="279" spans="1:28" x14ac:dyDescent="0.2">
@@ -23108,7 +23108,7 @@
       <c r="U279" t="s">
         <v>32</v>
       </c>
-      <c r="AB279" s="10"/>
+      <c r="AB279" s="9"/>
     </row>
     <row r="280" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
@@ -23174,13 +23174,13 @@
       <c r="U280" t="s">
         <v>32</v>
       </c>
-      <c r="V280" s="8"/>
-      <c r="W280" s="8"/>
-      <c r="X280" s="8"/>
-      <c r="Y280" s="8"/>
-      <c r="Z280" s="8"/>
-      <c r="AA280" s="8"/>
-      <c r="AB280" s="9"/>
+      <c r="V280" s="2"/>
+      <c r="W280" s="2"/>
+      <c r="X280" s="2"/>
+      <c r="Y280" s="2"/>
+      <c r="Z280" s="2"/>
+      <c r="AA280" s="2"/>
+      <c r="AB280" s="8"/>
     </row>
     <row r="281" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
@@ -23251,11 +23251,11 @@
       <c r="X281" s="6"/>
       <c r="Y281" s="6"/>
       <c r="Z281" s="6"/>
-      <c r="AA281" s="11" t="b">
+      <c r="AA281" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AB281" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="282" spans="1:28" x14ac:dyDescent="0.2">
@@ -23329,7 +23329,7 @@
       <c r="Z282" s="4"/>
       <c r="AA282" s="4"/>
       <c r="AB282" s="5" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
     </row>
     <row r="283" spans="1:28" x14ac:dyDescent="0.2">
@@ -23396,7 +23396,7 @@
       <c r="U283" t="s">
         <v>32</v>
       </c>
-      <c r="AB283" s="10"/>
+      <c r="AB283" s="9"/>
     </row>
     <row r="284" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
@@ -23462,13 +23462,13 @@
       <c r="U284" t="s">
         <v>32</v>
       </c>
-      <c r="V284" s="8"/>
-      <c r="W284" s="8"/>
-      <c r="X284" s="8"/>
-      <c r="Y284" s="8"/>
-      <c r="Z284" s="8"/>
-      <c r="AA284" s="8"/>
-      <c r="AB284" s="9"/>
+      <c r="V284" s="2"/>
+      <c r="W284" s="2"/>
+      <c r="X284" s="2"/>
+      <c r="Y284" s="2"/>
+      <c r="Z284" s="2"/>
+      <c r="AA284" s="2"/>
+      <c r="AB284" s="8"/>
     </row>
     <row r="285" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
@@ -23534,7 +23534,7 @@
       <c r="U285" t="s">
         <v>32</v>
       </c>
-      <c r="AB285" s="10"/>
+      <c r="AB285" s="9"/>
     </row>
     <row r="286" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
@@ -23600,13 +23600,13 @@
       <c r="U286" t="s">
         <v>32</v>
       </c>
-      <c r="V286" s="8"/>
-      <c r="W286" s="8"/>
-      <c r="X286" s="8"/>
-      <c r="Y286" s="8"/>
-      <c r="Z286" s="8"/>
-      <c r="AA286" s="8"/>
-      <c r="AB286" s="9"/>
+      <c r="V286" s="2"/>
+      <c r="W286" s="2"/>
+      <c r="X286" s="2"/>
+      <c r="Y286" s="2"/>
+      <c r="Z286" s="2"/>
+      <c r="AA286" s="2"/>
+      <c r="AB286" s="8"/>
     </row>
     <row r="287" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
@@ -23677,11 +23677,11 @@
       <c r="X287" s="6"/>
       <c r="Y287" s="6"/>
       <c r="Z287" s="6"/>
-      <c r="AA287" s="11" t="b">
+      <c r="AA287" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AB287" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="288" spans="1:28" x14ac:dyDescent="0.2">
@@ -23748,13 +23748,13 @@
       <c r="U288" t="s">
         <v>32</v>
       </c>
-      <c r="V288" s="8"/>
-      <c r="W288" s="8"/>
-      <c r="X288" s="8"/>
-      <c r="Y288" s="8"/>
-      <c r="Z288" s="8"/>
-      <c r="AA288" s="8"/>
-      <c r="AB288" s="9"/>
+      <c r="V288" s="2"/>
+      <c r="W288" s="2"/>
+      <c r="X288" s="2"/>
+      <c r="Y288" s="2"/>
+      <c r="Z288" s="2"/>
+      <c r="AA288" s="2"/>
+      <c r="AB288" s="8"/>
     </row>
     <row r="289" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
@@ -23825,11 +23825,11 @@
       <c r="X289" s="6"/>
       <c r="Y289" s="6"/>
       <c r="Z289" s="6"/>
-      <c r="AA289" s="11" t="b">
+      <c r="AA289" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AB289" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="290" spans="1:28" x14ac:dyDescent="0.2">
@@ -23896,13 +23896,13 @@
       <c r="U290" t="s">
         <v>32</v>
       </c>
-      <c r="V290" s="8"/>
-      <c r="W290" s="8"/>
-      <c r="X290" s="8"/>
-      <c r="Y290" s="8"/>
-      <c r="Z290" s="8"/>
-      <c r="AA290" s="8"/>
-      <c r="AB290" s="9"/>
+      <c r="V290" s="2"/>
+      <c r="W290" s="2"/>
+      <c r="X290" s="2"/>
+      <c r="Y290" s="2"/>
+      <c r="Z290" s="2"/>
+      <c r="AA290" s="2"/>
+      <c r="AB290" s="8"/>
     </row>
     <row r="291" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="AB291" s="7" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
     </row>
     <row r="292" spans="1:28" x14ac:dyDescent="0.2">
@@ -24044,13 +24044,13 @@
       <c r="U292" t="s">
         <v>32</v>
       </c>
-      <c r="V292" s="8"/>
-      <c r="W292" s="8"/>
-      <c r="X292" s="8"/>
-      <c r="Y292" s="8"/>
-      <c r="Z292" s="8"/>
-      <c r="AA292" s="8"/>
-      <c r="AB292" s="9"/>
+      <c r="V292" s="2"/>
+      <c r="W292" s="2"/>
+      <c r="X292" s="2"/>
+      <c r="Y292" s="2"/>
+      <c r="Z292" s="2"/>
+      <c r="AA292" s="2"/>
+      <c r="AB292" s="8"/>
     </row>
     <row r="293" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
@@ -24116,7 +24116,7 @@
       <c r="U293" t="s">
         <v>32</v>
       </c>
-      <c r="AB293" s="10"/>
+      <c r="AB293" s="9"/>
     </row>
     <row r="294" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
@@ -24193,7 +24193,7 @@
       </c>
       <c r="AA294" s="4"/>
       <c r="AB294" s="5" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
     </row>
     <row r="295" spans="1:28" x14ac:dyDescent="0.2">
@@ -24260,7 +24260,7 @@
       <c r="U295" t="s">
         <v>32</v>
       </c>
-      <c r="AB295" s="10"/>
+      <c r="AB295" s="9"/>
     </row>
     <row r="296" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
@@ -24326,13 +24326,13 @@
       <c r="U296" t="s">
         <v>32</v>
       </c>
-      <c r="V296" s="8"/>
-      <c r="W296" s="8"/>
-      <c r="X296" s="8"/>
-      <c r="Y296" s="8"/>
-      <c r="Z296" s="8"/>
-      <c r="AA296" s="8"/>
-      <c r="AB296" s="9"/>
+      <c r="V296" s="2"/>
+      <c r="W296" s="2"/>
+      <c r="X296" s="2"/>
+      <c r="Y296" s="2"/>
+      <c r="Z296" s="2"/>
+      <c r="AA296" s="2"/>
+      <c r="AB296" s="8"/>
     </row>
     <row r="297" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
@@ -24398,7 +24398,7 @@
       <c r="U297" t="s">
         <v>32</v>
       </c>
-      <c r="AB297" s="10"/>
+      <c r="AB297" s="9"/>
     </row>
     <row r="298" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
@@ -24464,13 +24464,13 @@
       <c r="U298" t="s">
         <v>32</v>
       </c>
-      <c r="V298" s="8"/>
-      <c r="W298" s="8"/>
-      <c r="X298" s="8"/>
-      <c r="Y298" s="8"/>
-      <c r="Z298" s="8"/>
-      <c r="AA298" s="8"/>
-      <c r="AB298" s="9"/>
+      <c r="V298" s="2"/>
+      <c r="W298" s="2"/>
+      <c r="X298" s="2"/>
+      <c r="Y298" s="2"/>
+      <c r="Z298" s="2"/>
+      <c r="AA298" s="2"/>
+      <c r="AB298" s="8"/>
     </row>
     <row r="299" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
@@ -24536,7 +24536,7 @@
       <c r="U299" t="s">
         <v>32</v>
       </c>
-      <c r="AB299" s="10"/>
+      <c r="AB299" s="9"/>
     </row>
     <row r="300" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
@@ -24602,13 +24602,13 @@
       <c r="U300" t="s">
         <v>32</v>
       </c>
-      <c r="V300" s="8"/>
-      <c r="W300" s="8"/>
-      <c r="X300" s="8"/>
-      <c r="Y300" s="8"/>
-      <c r="Z300" s="8"/>
-      <c r="AA300" s="8"/>
-      <c r="AB300" s="9"/>
+      <c r="V300" s="2"/>
+      <c r="W300" s="2"/>
+      <c r="X300" s="2"/>
+      <c r="Y300" s="2"/>
+      <c r="Z300" s="2"/>
+      <c r="AA300" s="2"/>
+      <c r="AB300" s="8"/>
     </row>
     <row r="301" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
@@ -24674,7 +24674,7 @@
       <c r="U301" t="s">
         <v>32</v>
       </c>
-      <c r="AB301" s="10"/>
+      <c r="AB301" s="9"/>
     </row>
     <row r="302" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
@@ -24745,11 +24745,11 @@
       <c r="X302" s="6"/>
       <c r="Y302" s="6"/>
       <c r="Z302" s="6"/>
-      <c r="AA302" s="11" t="b">
+      <c r="AA302" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AB302" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="303" spans="1:28" x14ac:dyDescent="0.2">
@@ -24816,7 +24816,7 @@
       <c r="U303" t="s">
         <v>32</v>
       </c>
-      <c r="AB303" s="10"/>
+      <c r="AB303" s="9"/>
     </row>
     <row r="304" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
@@ -24882,13 +24882,13 @@
       <c r="U304" t="s">
         <v>32</v>
       </c>
-      <c r="V304" s="8"/>
-      <c r="W304" s="8"/>
-      <c r="X304" s="8"/>
-      <c r="Y304" s="8"/>
-      <c r="Z304" s="8"/>
-      <c r="AA304" s="8"/>
-      <c r="AB304" s="9"/>
+      <c r="V304" s="2"/>
+      <c r="W304" s="2"/>
+      <c r="X304" s="2"/>
+      <c r="Y304" s="2"/>
+      <c r="Z304" s="2"/>
+      <c r="AA304" s="2"/>
+      <c r="AB304" s="8"/>
     </row>
     <row r="305" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
@@ -24954,7 +24954,7 @@
       <c r="U305" t="s">
         <v>32</v>
       </c>
-      <c r="AB305" s="10"/>
+      <c r="AB305" s="9"/>
     </row>
     <row r="306" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
@@ -25025,11 +25025,11 @@
       <c r="X306" s="6"/>
       <c r="Y306" s="6"/>
       <c r="Z306" s="6"/>
-      <c r="AA306" s="11" t="b">
+      <c r="AA306" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AB306" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="307" spans="1:28" x14ac:dyDescent="0.2">
@@ -25103,11 +25103,11 @@
       </c>
       <c r="Y307" s="6"/>
       <c r="Z307" s="6"/>
-      <c r="AA307" s="11" t="b">
+      <c r="AA307" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AB307" s="7" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
     </row>
     <row r="308" spans="1:28" x14ac:dyDescent="0.2">
@@ -25174,13 +25174,13 @@
       <c r="U308" t="s">
         <v>32</v>
       </c>
-      <c r="V308" s="8"/>
-      <c r="W308" s="8"/>
-      <c r="X308" s="8"/>
-      <c r="Y308" s="8"/>
-      <c r="Z308" s="8"/>
-      <c r="AA308" s="8"/>
-      <c r="AB308" s="9"/>
+      <c r="V308" s="2"/>
+      <c r="W308" s="2"/>
+      <c r="X308" s="2"/>
+      <c r="Y308" s="2"/>
+      <c r="Z308" s="2"/>
+      <c r="AA308" s="2"/>
+      <c r="AB308" s="8"/>
     </row>
     <row r="309" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
@@ -25246,7 +25246,7 @@
       <c r="U309" t="s">
         <v>32</v>
       </c>
-      <c r="AB309" s="10"/>
+      <c r="AB309" s="9"/>
     </row>
     <row r="310" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
@@ -25319,7 +25319,7 @@
       <c r="Z310" s="4"/>
       <c r="AA310" s="4"/>
       <c r="AB310" s="5" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
     </row>
     <row r="311" spans="1:28" x14ac:dyDescent="0.2">
@@ -25386,7 +25386,7 @@
       <c r="U311" t="s">
         <v>32</v>
       </c>
-      <c r="AB311" s="10"/>
+      <c r="AB311" s="9"/>
     </row>
     <row r="312" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
@@ -25452,13 +25452,13 @@
       <c r="U312" t="s">
         <v>32</v>
       </c>
-      <c r="V312" s="8"/>
-      <c r="W312" s="8"/>
-      <c r="X312" s="8"/>
-      <c r="Y312" s="8"/>
-      <c r="Z312" s="8"/>
-      <c r="AA312" s="8"/>
-      <c r="AB312" s="9"/>
+      <c r="V312" s="2"/>
+      <c r="W312" s="2"/>
+      <c r="X312" s="2"/>
+      <c r="Y312" s="2"/>
+      <c r="Z312" s="2"/>
+      <c r="AA312" s="2"/>
+      <c r="AB312" s="8"/>
     </row>
     <row r="313" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
@@ -25516,15 +25516,15 @@
         <v>1</v>
       </c>
       <c r="S313">
-        <v>8275</v>
+        <v>8258</v>
       </c>
       <c r="T313">
-        <v>7909</v>
+        <v>7892</v>
       </c>
       <c r="U313" t="s">
         <v>32</v>
       </c>
-      <c r="AB313" s="10"/>
+      <c r="AB313" s="9"/>
     </row>
     <row r="314" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
@@ -25590,13 +25590,13 @@
       <c r="U314" t="s">
         <v>32</v>
       </c>
-      <c r="V314" s="8"/>
-      <c r="W314" s="8"/>
-      <c r="X314" s="8"/>
-      <c r="Y314" s="8"/>
-      <c r="Z314" s="8"/>
-      <c r="AA314" s="8"/>
-      <c r="AB314" s="9"/>
+      <c r="V314" s="2"/>
+      <c r="W314" s="2"/>
+      <c r="X314" s="2"/>
+      <c r="Y314" s="2"/>
+      <c r="Z314" s="2"/>
+      <c r="AA314" s="2"/>
+      <c r="AB314" s="8"/>
     </row>
     <row r="315" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
@@ -25662,7 +25662,7 @@
       <c r="U315" t="s">
         <v>32</v>
       </c>
-      <c r="AB315" s="10"/>
+      <c r="AB315" s="9"/>
     </row>
     <row r="316" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
@@ -25728,13 +25728,13 @@
       <c r="U316" t="s">
         <v>32</v>
       </c>
-      <c r="V316" s="8"/>
-      <c r="W316" s="8"/>
-      <c r="X316" s="8"/>
-      <c r="Y316" s="8"/>
-      <c r="Z316" s="8"/>
-      <c r="AA316" s="8"/>
-      <c r="AB316" s="9"/>
+      <c r="V316" s="2"/>
+      <c r="W316" s="2"/>
+      <c r="X316" s="2"/>
+      <c r="Y316" s="2"/>
+      <c r="Z316" s="2"/>
+      <c r="AA316" s="2"/>
+      <c r="AB316" s="8"/>
     </row>
     <row r="317" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
@@ -25800,7 +25800,7 @@
       <c r="U317" t="s">
         <v>32</v>
       </c>
-      <c r="AB317" s="10"/>
+      <c r="AB317" s="9"/>
     </row>
     <row r="318" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
@@ -25866,13 +25866,13 @@
       <c r="U318" t="s">
         <v>32</v>
       </c>
-      <c r="V318" s="8"/>
-      <c r="W318" s="8"/>
-      <c r="X318" s="8"/>
-      <c r="Y318" s="8"/>
-      <c r="Z318" s="8"/>
-      <c r="AA318" s="8"/>
-      <c r="AB318" s="9"/>
+      <c r="V318" s="2"/>
+      <c r="W318" s="2"/>
+      <c r="X318" s="2"/>
+      <c r="Y318" s="2"/>
+      <c r="Z318" s="2"/>
+      <c r="AA318" s="2"/>
+      <c r="AB318" s="8"/>
     </row>
     <row r="319" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
@@ -25951,7 +25951,7 @@
       </c>
       <c r="AA319" s="4"/>
       <c r="AB319" s="5" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
     </row>
     <row r="320" spans="1:28" x14ac:dyDescent="0.2">
@@ -26018,13 +26018,13 @@
       <c r="U320" t="s">
         <v>32</v>
       </c>
-      <c r="V320" s="8"/>
-      <c r="W320" s="8"/>
-      <c r="X320" s="8"/>
-      <c r="Y320" s="8"/>
-      <c r="Z320" s="8"/>
-      <c r="AA320" s="8"/>
-      <c r="AB320" s="9"/>
+      <c r="V320" s="2"/>
+      <c r="W320" s="2"/>
+      <c r="X320" s="2"/>
+      <c r="Y320" s="2"/>
+      <c r="Z320" s="2"/>
+      <c r="AA320" s="2"/>
+      <c r="AB320" s="8"/>
     </row>
     <row r="321" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
@@ -26090,7 +26090,7 @@
       <c r="U321" t="s">
         <v>32</v>
       </c>
-      <c r="AB321" s="10"/>
+      <c r="AB321" s="9"/>
     </row>
     <row r="322" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
@@ -26156,13 +26156,13 @@
       <c r="U322" t="s">
         <v>32</v>
       </c>
-      <c r="V322" s="8"/>
-      <c r="W322" s="8"/>
-      <c r="X322" s="8"/>
-      <c r="Y322" s="8"/>
-      <c r="Z322" s="8"/>
-      <c r="AA322" s="8"/>
-      <c r="AB322" s="9"/>
+      <c r="V322" s="2"/>
+      <c r="W322" s="2"/>
+      <c r="X322" s="2"/>
+      <c r="Y322" s="2"/>
+      <c r="Z322" s="2"/>
+      <c r="AA322" s="2"/>
+      <c r="AB322" s="8"/>
     </row>
     <row r="323" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
@@ -26235,7 +26235,7 @@
       <c r="Z323" s="4"/>
       <c r="AA323" s="4"/>
       <c r="AB323" s="5" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
     </row>
     <row r="324" spans="1:28" x14ac:dyDescent="0.2">
@@ -26302,13 +26302,13 @@
       <c r="U324" t="s">
         <v>32</v>
       </c>
-      <c r="V324" s="8"/>
-      <c r="W324" s="8"/>
-      <c r="X324" s="8"/>
-      <c r="Y324" s="8"/>
-      <c r="Z324" s="8"/>
-      <c r="AA324" s="8"/>
-      <c r="AB324" s="9"/>
+      <c r="V324" s="2"/>
+      <c r="W324" s="2"/>
+      <c r="X324" s="2"/>
+      <c r="Y324" s="2"/>
+      <c r="Z324" s="2"/>
+      <c r="AA324" s="2"/>
+      <c r="AB324" s="8"/>
     </row>
     <row r="325" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
@@ -26374,7 +26374,7 @@
       <c r="U325" t="s">
         <v>32</v>
       </c>
-      <c r="AB325" s="10"/>
+      <c r="AB325" s="9"/>
     </row>
     <row r="326" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
@@ -26440,13 +26440,13 @@
       <c r="U326" t="s">
         <v>32</v>
       </c>
-      <c r="V326" s="8"/>
-      <c r="W326" s="8"/>
-      <c r="X326" s="8"/>
-      <c r="Y326" s="8"/>
-      <c r="Z326" s="8"/>
-      <c r="AA326" s="8"/>
-      <c r="AB326" s="9"/>
+      <c r="V326" s="2"/>
+      <c r="W326" s="2"/>
+      <c r="X326" s="2"/>
+      <c r="Y326" s="2"/>
+      <c r="Z326" s="2"/>
+      <c r="AA326" s="2"/>
+      <c r="AB326" s="8"/>
     </row>
     <row r="327" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
@@ -26512,7 +26512,7 @@
       <c r="U327" t="s">
         <v>32</v>
       </c>
-      <c r="AB327" s="10"/>
+      <c r="AB327" s="9"/>
     </row>
     <row r="328" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
@@ -26583,11 +26583,11 @@
       <c r="X328" s="6"/>
       <c r="Y328" s="6"/>
       <c r="Z328" s="6"/>
-      <c r="AA328" s="11" t="b">
+      <c r="AA328" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AB328" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="329" spans="1:28" x14ac:dyDescent="0.2">
@@ -26661,11 +26661,11 @@
       </c>
       <c r="Y329" s="6"/>
       <c r="Z329" s="6"/>
-      <c r="AA329" s="11" t="b">
+      <c r="AA329" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AB329" s="7" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
     </row>
     <row r="330" spans="1:28" x14ac:dyDescent="0.2">
@@ -26732,13 +26732,13 @@
       <c r="U330" t="s">
         <v>32</v>
       </c>
-      <c r="V330" s="8"/>
-      <c r="W330" s="8"/>
-      <c r="X330" s="8"/>
-      <c r="Y330" s="8"/>
-      <c r="Z330" s="8"/>
-      <c r="AA330" s="8"/>
-      <c r="AB330" s="9"/>
+      <c r="V330" s="2"/>
+      <c r="W330" s="2"/>
+      <c r="X330" s="2"/>
+      <c r="Y330" s="2"/>
+      <c r="Z330" s="2"/>
+      <c r="AA330" s="2"/>
+      <c r="AB330" s="8"/>
     </row>
     <row r="331" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
@@ -26809,11 +26809,11 @@
       <c r="X331" s="6"/>
       <c r="Y331" s="6"/>
       <c r="Z331" s="6"/>
-      <c r="AA331" s="11" t="b">
+      <c r="AA331" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AB331" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="332" spans="1:28" x14ac:dyDescent="0.2">
@@ -26880,13 +26880,13 @@
       <c r="U332" t="s">
         <v>32</v>
       </c>
-      <c r="V332" s="8"/>
-      <c r="W332" s="8"/>
-      <c r="X332" s="8"/>
-      <c r="Y332" s="8"/>
-      <c r="Z332" s="8"/>
-      <c r="AA332" s="8"/>
-      <c r="AB332" s="9"/>
+      <c r="V332" s="2"/>
+      <c r="W332" s="2"/>
+      <c r="X332" s="2"/>
+      <c r="Y332" s="2"/>
+      <c r="Z332" s="2"/>
+      <c r="AA332" s="2"/>
+      <c r="AB332" s="8"/>
     </row>
     <row r="333" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
@@ -26952,7 +26952,7 @@
       <c r="U333" t="s">
         <v>32</v>
       </c>
-      <c r="AB333" s="10"/>
+      <c r="AB333" s="9"/>
     </row>
     <row r="334" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
@@ -27018,13 +27018,13 @@
       <c r="U334" t="s">
         <v>32</v>
       </c>
-      <c r="V334" s="8"/>
-      <c r="W334" s="8"/>
-      <c r="X334" s="8"/>
-      <c r="Y334" s="8"/>
-      <c r="Z334" s="8"/>
-      <c r="AA334" s="8"/>
-      <c r="AB334" s="9"/>
+      <c r="V334" s="2"/>
+      <c r="W334" s="2"/>
+      <c r="X334" s="2"/>
+      <c r="Y334" s="2"/>
+      <c r="Z334" s="2"/>
+      <c r="AA334" s="2"/>
+      <c r="AB334" s="8"/>
     </row>
     <row r="335" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
@@ -27090,7 +27090,7 @@
       <c r="U335" t="s">
         <v>32</v>
       </c>
-      <c r="AB335" s="10"/>
+      <c r="AB335" s="9"/>
     </row>
     <row r="336" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
@@ -27156,13 +27156,13 @@
       <c r="U336" t="s">
         <v>32</v>
       </c>
-      <c r="V336" s="8"/>
-      <c r="W336" s="8"/>
-      <c r="X336" s="8"/>
-      <c r="Y336" s="8"/>
-      <c r="Z336" s="8"/>
-      <c r="AA336" s="8"/>
-      <c r="AB336" s="9"/>
+      <c r="V336" s="2"/>
+      <c r="W336" s="2"/>
+      <c r="X336" s="2"/>
+      <c r="Y336" s="2"/>
+      <c r="Z336" s="2"/>
+      <c r="AA336" s="2"/>
+      <c r="AB336" s="8"/>
     </row>
     <row r="337" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
@@ -27233,11 +27233,11 @@
       <c r="X337" s="6"/>
       <c r="Y337" s="6"/>
       <c r="Z337" s="6"/>
-      <c r="AA337" s="11" t="b">
+      <c r="AA337" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AB337" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="338" spans="1:28" x14ac:dyDescent="0.2">
@@ -27304,13 +27304,13 @@
       <c r="U338" t="s">
         <v>32</v>
       </c>
-      <c r="V338" s="8"/>
-      <c r="W338" s="8"/>
-      <c r="X338" s="8"/>
-      <c r="Y338" s="8"/>
-      <c r="Z338" s="8"/>
-      <c r="AA338" s="8"/>
-      <c r="AB338" s="9"/>
+      <c r="V338" s="2"/>
+      <c r="W338" s="2"/>
+      <c r="X338" s="2"/>
+      <c r="Y338" s="2"/>
+      <c r="Z338" s="2"/>
+      <c r="AA338" s="2"/>
+      <c r="AB338" s="8"/>
     </row>
     <row r="339" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
@@ -27376,7 +27376,7 @@
       <c r="U339" t="s">
         <v>32</v>
       </c>
-      <c r="AB339" s="10"/>
+      <c r="AB339" s="9"/>
     </row>
     <row r="340" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
@@ -27442,13 +27442,13 @@
       <c r="U340" t="s">
         <v>32</v>
       </c>
-      <c r="V340" s="8"/>
-      <c r="W340" s="8"/>
-      <c r="X340" s="8"/>
-      <c r="Y340" s="8"/>
-      <c r="Z340" s="8"/>
-      <c r="AA340" s="8"/>
-      <c r="AB340" s="9"/>
+      <c r="V340" s="2"/>
+      <c r="W340" s="2"/>
+      <c r="X340" s="2"/>
+      <c r="Y340" s="2"/>
+      <c r="Z340" s="2"/>
+      <c r="AA340" s="2"/>
+      <c r="AB340" s="8"/>
     </row>
     <row r="341" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
@@ -27514,7 +27514,7 @@
       <c r="U341" t="s">
         <v>32</v>
       </c>
-      <c r="AB341" s="10"/>
+      <c r="AB341" s="9"/>
     </row>
     <row r="342" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
@@ -27587,7 +27587,7 @@
       <c r="Z342" s="4"/>
       <c r="AA342" s="4"/>
       <c r="AB342" s="5" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
     </row>
     <row r="343" spans="1:28" x14ac:dyDescent="0.2">
@@ -27659,11 +27659,11 @@
       <c r="X343" s="6"/>
       <c r="Y343" s="6"/>
       <c r="Z343" s="6"/>
-      <c r="AA343" s="11" t="b">
+      <c r="AA343" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AB343" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="344" spans="1:28" x14ac:dyDescent="0.2">
@@ -27730,13 +27730,13 @@
       <c r="U344" t="s">
         <v>32</v>
       </c>
-      <c r="V344" s="8"/>
-      <c r="W344" s="8"/>
-      <c r="X344" s="8"/>
-      <c r="Y344" s="8"/>
-      <c r="Z344" s="8"/>
-      <c r="AA344" s="8"/>
-      <c r="AB344" s="9"/>
+      <c r="V344" s="2"/>
+      <c r="W344" s="2"/>
+      <c r="X344" s="2"/>
+      <c r="Y344" s="2"/>
+      <c r="Z344" s="2"/>
+      <c r="AA344" s="2"/>
+      <c r="AB344" s="8"/>
     </row>
     <row r="345" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
@@ -27802,7 +27802,7 @@
       <c r="U345" t="s">
         <v>32</v>
       </c>
-      <c r="AB345" s="10"/>
+      <c r="AB345" s="9"/>
     </row>
     <row r="346" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
@@ -27868,13 +27868,13 @@
       <c r="U346" t="s">
         <v>32</v>
       </c>
-      <c r="V346" s="8"/>
-      <c r="W346" s="8"/>
-      <c r="X346" s="8"/>
-      <c r="Y346" s="8"/>
-      <c r="Z346" s="8"/>
-      <c r="AA346" s="8"/>
-      <c r="AB346" s="9"/>
+      <c r="V346" s="2"/>
+      <c r="W346" s="2"/>
+      <c r="X346" s="2"/>
+      <c r="Y346" s="2"/>
+      <c r="Z346" s="2"/>
+      <c r="AA346" s="2"/>
+      <c r="AB346" s="8"/>
     </row>
     <row r="347" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
@@ -27945,11 +27945,11 @@
       <c r="X347" s="6"/>
       <c r="Y347" s="6"/>
       <c r="Z347" s="6"/>
-      <c r="AA347" s="11" t="b">
+      <c r="AA347" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AB347" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="348" spans="1:28" x14ac:dyDescent="0.2">
@@ -28021,11 +28021,11 @@
       <c r="X348" s="6"/>
       <c r="Y348" s="6"/>
       <c r="Z348" s="6"/>
-      <c r="AA348" s="11" t="b">
+      <c r="AA348" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AB348" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="349" spans="1:28" x14ac:dyDescent="0.2">
@@ -28092,7 +28092,7 @@
       <c r="U349" t="s">
         <v>32</v>
       </c>
-      <c r="AB349" s="10"/>
+      <c r="AB349" s="9"/>
     </row>
     <row r="350" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
@@ -28158,13 +28158,13 @@
       <c r="U350" t="s">
         <v>32</v>
       </c>
-      <c r="V350" s="8"/>
-      <c r="W350" s="8"/>
-      <c r="X350" s="8"/>
-      <c r="Y350" s="8"/>
-      <c r="Z350" s="8"/>
-      <c r="AA350" s="8"/>
-      <c r="AB350" s="9"/>
+      <c r="V350" s="2"/>
+      <c r="W350" s="2"/>
+      <c r="X350" s="2"/>
+      <c r="Y350" s="2"/>
+      <c r="Z350" s="2"/>
+      <c r="AA350" s="2"/>
+      <c r="AB350" s="8"/>
     </row>
     <row r="351" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
@@ -28235,11 +28235,11 @@
       <c r="X351" s="6"/>
       <c r="Y351" s="6"/>
       <c r="Z351" s="6"/>
-      <c r="AA351" s="11" t="b">
+      <c r="AA351" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AB351" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="352" spans="1:28" x14ac:dyDescent="0.2">
@@ -28311,11 +28311,11 @@
       <c r="X352" s="6"/>
       <c r="Y352" s="6"/>
       <c r="Z352" s="6"/>
-      <c r="AA352" s="11" t="b">
+      <c r="AA352" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AB352" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="353" spans="1:28" x14ac:dyDescent="0.2">
@@ -28387,11 +28387,11 @@
       <c r="X353" s="6"/>
       <c r="Y353" s="6"/>
       <c r="Z353" s="6"/>
-      <c r="AA353" s="11" t="b">
+      <c r="AA353" s="10" t="b">
         <v>0</v>
       </c>
       <c r="AB353" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="354" spans="1:28" x14ac:dyDescent="0.2">
@@ -28458,13 +28458,13 @@
       <c r="U354" t="s">
         <v>32</v>
       </c>
-      <c r="V354" s="8"/>
-      <c r="W354" s="8"/>
-      <c r="X354" s="8"/>
-      <c r="Y354" s="8"/>
-      <c r="Z354" s="8"/>
-      <c r="AA354" s="8"/>
-      <c r="AB354" s="9"/>
+      <c r="V354" s="2"/>
+      <c r="W354" s="2"/>
+      <c r="X354" s="2"/>
+      <c r="Y354" s="2"/>
+      <c r="Z354" s="2"/>
+      <c r="AA354" s="2"/>
+      <c r="AB354" s="8"/>
     </row>
     <row r="355" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
@@ -28537,7 +28537,7 @@
       <c r="Z355" s="4"/>
       <c r="AA355" s="4"/>
       <c r="AB355" s="5" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
     </row>
     <row r="356" spans="1:28" x14ac:dyDescent="0.2">
@@ -28621,7 +28621,7 @@
       </c>
       <c r="AA356" s="4"/>
       <c r="AB356" s="5" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
     </row>
     <row r="357" spans="1:28" x14ac:dyDescent="0.2">
@@ -28688,7 +28688,7 @@
       <c r="U357" t="s">
         <v>32</v>
       </c>
-      <c r="AB357" s="10"/>
+      <c r="AB357" s="9"/>
     </row>
     <row r="358" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
@@ -28754,13 +28754,13 @@
       <c r="U358" t="s">
         <v>32</v>
       </c>
-      <c r="V358" s="8"/>
-      <c r="W358" s="8"/>
-      <c r="X358" s="8"/>
-      <c r="Y358" s="8"/>
-      <c r="Z358" s="8"/>
-      <c r="AA358" s="8"/>
-      <c r="AB358" s="9"/>
+      <c r="V358" s="2"/>
+      <c r="W358" s="2"/>
+      <c r="X358" s="2"/>
+      <c r="Y358" s="2"/>
+      <c r="Z358" s="2"/>
+      <c r="AA358" s="2"/>
+      <c r="AB358" s="8"/>
     </row>
     <row r="359" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
@@ -28826,7 +28826,7 @@
       <c r="U359" t="s">
         <v>32</v>
       </c>
-      <c r="AB359" s="10"/>
+      <c r="AB359" s="9"/>
     </row>
     <row r="360" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
@@ -28892,13 +28892,13 @@
       <c r="U360" t="s">
         <v>32</v>
       </c>
-      <c r="V360" s="8"/>
-      <c r="W360" s="8"/>
-      <c r="X360" s="8"/>
-      <c r="Y360" s="8"/>
-      <c r="Z360" s="8"/>
-      <c r="AA360" s="8"/>
-      <c r="AB360" s="9"/>
+      <c r="V360" s="2"/>
+      <c r="W360" s="2"/>
+      <c r="X360" s="2"/>
+      <c r="Y360" s="2"/>
+      <c r="Z360" s="2"/>
+      <c r="AA360" s="2"/>
+      <c r="AB360" s="8"/>
     </row>
     <row r="361" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
@@ -28971,7 +28971,7 @@
       <c r="Z361" s="4"/>
       <c r="AA361" s="4"/>
       <c r="AB361" s="5" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
     </row>
     <row r="362" spans="1:28" x14ac:dyDescent="0.2">
@@ -29045,7 +29045,7 @@
       <c r="Z362" s="4"/>
       <c r="AA362" s="4"/>
       <c r="AB362" s="5" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
     </row>
     <row r="363" spans="1:28" x14ac:dyDescent="0.2">
@@ -29112,7 +29112,7 @@
       <c r="U363" t="s">
         <v>32</v>
       </c>
-      <c r="AB363" s="10"/>
+      <c r="AB363" s="9"/>
     </row>
     <row r="364" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
@@ -29178,13 +29178,13 @@
       <c r="U364" t="s">
         <v>32</v>
       </c>
-      <c r="V364" s="8"/>
-      <c r="W364" s="8"/>
-      <c r="X364" s="8"/>
-      <c r="Y364" s="8"/>
-      <c r="Z364" s="8"/>
-      <c r="AA364" s="8"/>
-      <c r="AB364" s="9"/>
+      <c r="V364" s="2"/>
+      <c r="W364" s="2"/>
+      <c r="X364" s="2"/>
+      <c r="Y364" s="2"/>
+      <c r="Z364" s="2"/>
+      <c r="AA364" s="2"/>
+      <c r="AB364" s="8"/>
     </row>
     <row r="365" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
@@ -29259,7 +29259,7 @@
         <v>0</v>
       </c>
       <c r="AB365" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="366" spans="1:28" x14ac:dyDescent="0.2">
@@ -29333,7 +29333,7 @@
       <c r="Z366" s="4"/>
       <c r="AA366" s="4"/>
       <c r="AB366" s="5" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
     </row>
     <row r="367" spans="1:28" x14ac:dyDescent="0.2">
@@ -29411,7 +29411,7 @@
         <v>0</v>
       </c>
       <c r="AB367" s="7" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
     </row>
     <row r="368" spans="1:28" x14ac:dyDescent="0.2">
@@ -29485,7 +29485,7 @@
       <c r="Z368" s="4"/>
       <c r="AA368" s="4"/>
       <c r="AB368" s="5" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
     </row>
     <row r="369" spans="1:28" x14ac:dyDescent="0.2">
@@ -29561,7 +29561,7 @@
         <v>0</v>
       </c>
       <c r="AB369" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="370" spans="1:28" x14ac:dyDescent="0.2">
@@ -29628,13 +29628,13 @@
       <c r="U370" t="s">
         <v>32</v>
       </c>
-      <c r="V370" s="8"/>
-      <c r="W370" s="8"/>
-      <c r="X370" s="8"/>
-      <c r="Y370" s="8"/>
-      <c r="Z370" s="8"/>
-      <c r="AA370" s="8"/>
-      <c r="AB370" s="9"/>
+      <c r="V370" s="2"/>
+      <c r="W370" s="2"/>
+      <c r="X370" s="2"/>
+      <c r="Y370" s="2"/>
+      <c r="Z370" s="2"/>
+      <c r="AA370" s="2"/>
+      <c r="AB370" s="8"/>
     </row>
     <row r="371" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
@@ -29707,7 +29707,7 @@
       <c r="Z371" s="4"/>
       <c r="AA371" s="4"/>
       <c r="AB371" s="5" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
     </row>
     <row r="372" spans="1:28" x14ac:dyDescent="0.2">
@@ -29783,7 +29783,7 @@
         <v>0</v>
       </c>
       <c r="AB372" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="373" spans="1:28" x14ac:dyDescent="0.2">
@@ -29857,7 +29857,7 @@
       <c r="Z373" s="4"/>
       <c r="AA373" s="4"/>
       <c r="AB373" s="5" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
     </row>
     <row r="374" spans="1:28" x14ac:dyDescent="0.2">
@@ -29924,13 +29924,13 @@
       <c r="U374" t="s">
         <v>32</v>
       </c>
-      <c r="V374" s="8"/>
-      <c r="W374" s="8"/>
-      <c r="X374" s="8"/>
-      <c r="Y374" s="8"/>
-      <c r="Z374" s="8"/>
-      <c r="AA374" s="8"/>
-      <c r="AB374" s="9"/>
+      <c r="V374" s="2"/>
+      <c r="W374" s="2"/>
+      <c r="X374" s="2"/>
+      <c r="Y374" s="2"/>
+      <c r="Z374" s="2"/>
+      <c r="AA374" s="2"/>
+      <c r="AB374" s="8"/>
     </row>
     <row r="375" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
@@ -29996,7 +29996,7 @@
       <c r="U375" t="s">
         <v>32</v>
       </c>
-      <c r="AB375" s="10"/>
+      <c r="AB375" s="9"/>
     </row>
     <row r="376" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
@@ -30069,7 +30069,7 @@
       <c r="Z376" s="4"/>
       <c r="AA376" s="4"/>
       <c r="AB376" s="5" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
     </row>
     <row r="377" spans="1:28" x14ac:dyDescent="0.2">
@@ -30136,7 +30136,7 @@
       <c r="U377" t="s">
         <v>32</v>
       </c>
-      <c r="AB377" s="10"/>
+      <c r="AB377" s="9"/>
     </row>
     <row r="378" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
@@ -30211,7 +30211,7 @@
         <v>0</v>
       </c>
       <c r="AB378" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="379" spans="1:28" x14ac:dyDescent="0.2">
@@ -30278,7 +30278,7 @@
       <c r="U379" t="s">
         <v>32</v>
       </c>
-      <c r="AB379" s="10"/>
+      <c r="AB379" s="9"/>
     </row>
     <row r="380" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
@@ -30344,13 +30344,13 @@
       <c r="U380" t="s">
         <v>32</v>
       </c>
-      <c r="V380" s="8"/>
-      <c r="W380" s="8"/>
-      <c r="X380" s="8"/>
-      <c r="Y380" s="8"/>
-      <c r="Z380" s="8"/>
-      <c r="AA380" s="8"/>
-      <c r="AB380" s="9"/>
+      <c r="V380" s="2"/>
+      <c r="W380" s="2"/>
+      <c r="X380" s="2"/>
+      <c r="Y380" s="2"/>
+      <c r="Z380" s="2"/>
+      <c r="AA380" s="2"/>
+      <c r="AB380" s="8"/>
     </row>
     <row r="381" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
@@ -30416,7 +30416,7 @@
       <c r="U381" t="s">
         <v>32</v>
       </c>
-      <c r="AB381" s="10"/>
+      <c r="AB381" s="9"/>
     </row>
     <row r="382" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
@@ -30482,13 +30482,13 @@
       <c r="U382" t="s">
         <v>32</v>
       </c>
-      <c r="V382" s="8"/>
-      <c r="W382" s="8"/>
-      <c r="X382" s="8"/>
-      <c r="Y382" s="8"/>
-      <c r="Z382" s="8"/>
-      <c r="AA382" s="8"/>
-      <c r="AB382" s="9"/>
+      <c r="V382" s="2"/>
+      <c r="W382" s="2"/>
+      <c r="X382" s="2"/>
+      <c r="Y382" s="2"/>
+      <c r="Z382" s="2"/>
+      <c r="AA382" s="2"/>
+      <c r="AB382" s="8"/>
     </row>
     <row r="383" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
@@ -30563,7 +30563,7 @@
         <v>0</v>
       </c>
       <c r="AB383" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="384" spans="1:28" x14ac:dyDescent="0.2">
@@ -30630,13 +30630,13 @@
       <c r="U384" t="s">
         <v>32</v>
       </c>
-      <c r="V384" s="8"/>
-      <c r="W384" s="8"/>
-      <c r="X384" s="8"/>
-      <c r="Y384" s="8"/>
-      <c r="Z384" s="8"/>
-      <c r="AA384" s="8"/>
-      <c r="AB384" s="9"/>
+      <c r="V384" s="2"/>
+      <c r="W384" s="2"/>
+      <c r="X384" s="2"/>
+      <c r="Y384" s="2"/>
+      <c r="Z384" s="2"/>
+      <c r="AA384" s="2"/>
+      <c r="AB384" s="8"/>
     </row>
     <row r="385" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
@@ -30702,7 +30702,7 @@
       <c r="U385" t="s">
         <v>32</v>
       </c>
-      <c r="AB385" s="10"/>
+      <c r="AB385" s="9"/>
     </row>
     <row r="386" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
@@ -30777,7 +30777,7 @@
         <v>0</v>
       </c>
       <c r="AB386" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="387" spans="1:28" x14ac:dyDescent="0.2">
@@ -30853,7 +30853,7 @@
         <v>0</v>
       </c>
       <c r="AB387" s="7" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="388" spans="1:28" x14ac:dyDescent="0.2">
@@ -30920,13 +30920,13 @@
       <c r="U388" t="s">
         <v>32</v>
       </c>
-      <c r="V388" s="8"/>
-      <c r="W388" s="8"/>
-      <c r="X388" s="8"/>
-      <c r="Y388" s="8"/>
-      <c r="Z388" s="8"/>
-      <c r="AA388" s="8"/>
-      <c r="AB388" s="9"/>
+      <c r="V388" s="2"/>
+      <c r="W388" s="2"/>
+      <c r="X388" s="2"/>
+      <c r="Y388" s="2"/>
+      <c r="Z388" s="2"/>
+      <c r="AA388" s="2"/>
+      <c r="AB388" s="8"/>
     </row>
     <row r="389" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
@@ -30999,7 +30999,7 @@
       <c r="Z389" s="4"/>
       <c r="AA389" s="4"/>
       <c r="AB389" s="5" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
     </row>
     <row r="390" spans="1:28" x14ac:dyDescent="0.2">
@@ -31066,13 +31066,13 @@
       <c r="U390" t="s">
         <v>32</v>
       </c>
-      <c r="V390" s="8"/>
-      <c r="W390" s="8"/>
-      <c r="X390" s="8"/>
-      <c r="Y390" s="8"/>
-      <c r="Z390" s="8"/>
-      <c r="AA390" s="8"/>
-      <c r="AB390" s="9"/>
+      <c r="V390" s="2"/>
+      <c r="W390" s="2"/>
+      <c r="X390" s="2"/>
+      <c r="Y390" s="2"/>
+      <c r="Z390" s="2"/>
+      <c r="AA390" s="2"/>
+      <c r="AB390" s="8"/>
     </row>
     <row r="391" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
@@ -31138,7 +31138,7 @@
       <c r="U391" t="s">
         <v>32</v>
       </c>
-      <c r="AB391" s="10"/>
+      <c r="AB391" s="9"/>
     </row>
     <row r="392" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
@@ -31204,13 +31204,13 @@
       <c r="U392" t="s">
         <v>32</v>
       </c>
-      <c r="V392" s="8"/>
-      <c r="W392" s="8"/>
-      <c r="X392" s="8"/>
-      <c r="Y392" s="8"/>
-      <c r="Z392" s="8"/>
-      <c r="AA392" s="8"/>
-      <c r="AB392" s="9"/>
+      <c r="V392" s="2"/>
+      <c r="W392" s="2"/>
+      <c r="X392" s="2"/>
+      <c r="Y392" s="2"/>
+      <c r="Z392" s="2"/>
+      <c r="AA392" s="2"/>
+      <c r="AB392" s="8"/>
     </row>
     <row r="393" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
@@ -31276,7 +31276,7 @@
       <c r="U393" t="s">
         <v>32</v>
       </c>
-      <c r="AB393" s="10"/>
+      <c r="AB393" s="9"/>
     </row>
     <row r="394" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
@@ -31342,13 +31342,13 @@
       <c r="U394" t="s">
         <v>32</v>
       </c>
-      <c r="V394" s="8"/>
-      <c r="W394" s="8"/>
-      <c r="X394" s="8"/>
-      <c r="Y394" s="8"/>
-      <c r="Z394" s="8"/>
-      <c r="AA394" s="8"/>
-      <c r="AB394" s="9"/>
+      <c r="V394" s="2"/>
+      <c r="W394" s="2"/>
+      <c r="X394" s="2"/>
+      <c r="Y394" s="2"/>
+      <c r="Z394" s="2"/>
+      <c r="AA394" s="2"/>
+      <c r="AB394" s="8"/>
     </row>
     <row r="395" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
@@ -31414,18 +31414,19 @@
       <c r="U395" t="s">
         <v>32</v>
       </c>
-      <c r="V395" s="12"/>
-      <c r="W395" s="12"/>
-      <c r="X395" s="12"/>
-      <c r="Y395" s="12"/>
-      <c r="Z395" s="12"/>
-      <c r="AA395" s="12"/>
-      <c r="AB395" s="13"/>
+      <c r="V395" s="3"/>
+      <c r="W395" s="3"/>
+      <c r="X395" s="3"/>
+      <c r="Y395" s="3"/>
+      <c r="Z395" s="3"/>
+      <c r="AA395" s="3"/>
+      <c r="AB395" s="11"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U395">
     <sortCondition ref="C2:C395"/>
     <sortCondition ref="S2:S395"/>
+    <sortCondition ref="B2:B395"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
